--- a/python/metadataMaster/ICEYE_Product_Metadata.xlsx
+++ b/python/metadataMaster/ICEYE_Product_Metadata.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darren/Documents/product-documentation/python/metadataMaster/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805D37AC-1980-4B4A-99B5-E15A8DABB4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEA20F4-DFF6-A443-ADB1-1B19D3A171D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68260" yWindow="500" windowWidth="34140" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46060" yWindow="500" windowWidth="49900" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Version 2.3" sheetId="11" r:id="rId1"/>
+    <sheet name="Version 2.4" sheetId="12" r:id="rId1"/>
+    <sheet name="Version 2.3" sheetId="11" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="317">
   <si>
     <t>HDF5</t>
   </si>
@@ -934,12 +935,108 @@
   <si>
     <t xml:space="preserve"> "native"</t>
   </si>
+  <si>
+    <t>acquisition_id</t>
+  </si>
+  <si>
+    <t>AREA_OR_POINT</t>
+  </si>
+  <si>
+    <t>azimuth_resolution</t>
+  </si>
+  <si>
+    <t>height_spline</t>
+  </si>
+  <si>
+    <t>lat_spline</t>
+  </si>
+  <si>
+    <t>local_incidence_angle</t>
+  </si>
+  <si>
+    <t>lon_spline</t>
+  </si>
+  <si>
+    <t>range_resolution_center</t>
+  </si>
+  <si>
+    <t>range_resolution_far</t>
+  </si>
+  <si>
+    <t>range_resolution_near</t>
+  </si>
+  <si>
+    <t>ref_track_point_ecef</t>
+  </si>
+  <si>
+    <t>ref_track_point_lla</t>
+  </si>
+  <si>
+    <t>range_spacing</t>
+  </si>
+  <si>
+    <t>Identitification number for this acquisition</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>geotif flag indicating if this is an area collection or a point collection</t>
+  </si>
+  <si>
+    <t>Area' or 'Point'</t>
+  </si>
+  <si>
+    <t>3dB resolution of this data product</t>
+  </si>
+  <si>
+    <t>Python numpy spline parameters for surface height used to focus image</t>
+  </si>
+  <si>
+    <t>hickle</t>
+  </si>
+  <si>
+    <t>Python numpy spline parameters for image pixel latitudes</t>
+  </si>
+  <si>
+    <t>Array of values describing the local incidence angle or each range sample in the scene</t>
+  </si>
+  <si>
+    <t>[]float64</t>
+  </si>
+  <si>
+    <t>Python numpy spline parameters for image pixel longitudes</t>
+  </si>
+  <si>
+    <t>Scene centre range resolution</t>
+  </si>
+  <si>
+    <t>Range resolution at the far edge of the image</t>
+  </si>
+  <si>
+    <t>range resolution at the near edge of the image</t>
+  </si>
+  <si>
+    <t>reference point for image in earth centred earth fixed coordinate frame</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>reference poInt for image in terms of latitude, longitude and altitude</t>
+  </si>
+  <si>
+    <t>deg,deg,m</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1011,6 +1108,11 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Neuton Regular"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF980000"/>
+      <name val="Docs-Neuton"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1104,7 +1206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1222,6 +1324,53 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1437,17 +1586,6242 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908AC5F3-4CE9-104E-9637-7475D9F762F7}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:Y1024"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="65.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="52" customWidth="1"/>
+    <col min="4" max="4" width="10" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.5" style="52" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="31" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="13">
+      <c r="A1" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+    </row>
+    <row r="2" spans="1:25" ht="14">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="13">
+      <c r="A3" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>298</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>299</v>
+      </c>
+      <c r="E3" s="51">
+        <v>469840</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+    </row>
+    <row r="4" spans="1:25" ht="14">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="14">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="26">
+        <v>4823.00342969132</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="14">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="14">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="1:25" ht="14">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:25" ht="14">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:25" ht="14">
+      <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="26">
+        <v>1</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="14">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" spans="1:25" ht="13">
+      <c r="A12" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="I12" s="64"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+    </row>
+    <row r="13" spans="1:25" ht="28">
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="26">
+        <v>661</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="14">
+      <c r="A14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="26">
+        <v>1.44733</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+    </row>
+    <row r="15" spans="1:25" ht="14">
+      <c r="A15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="26">
+        <v>1.44733</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="14">
+      <c r="A16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="26">
+        <v>1157.2</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="14">
+      <c r="A17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="26">
+        <v>289.3</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="14">
+      <c r="A18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="26">
+        <v>3</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="13">
+      <c r="A19" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>302</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="62">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="H19" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="I19" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+    </row>
+    <row r="20" spans="1:25" ht="14">
+      <c r="A20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2.073E-4</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="14">
+      <c r="A21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="26">
+        <v>1.2341123000000001E-5</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="14">
+      <c r="A22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="26">
+        <v>9650000000</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="15" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="26">
+        <v>134000000</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="14">
+      <c r="A24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="26">
+        <v>4.1473000000000001E-5</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="28">
+      <c r="A25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="42">
+      <c r="A26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="42">
+      <c r="A27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="42">
+      <c r="A28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="42">
+      <c r="A29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="25.5" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="25.5" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I31" s="28"/>
+    </row>
+    <row r="32" spans="1:25" ht="14">
+      <c r="A32" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="26">
+        <v>3</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" s="47" customFormat="1" ht="42">
+      <c r="A33" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="G33" s="43"/>
+      <c r="H33" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="I33" s="43"/>
+    </row>
+    <row r="34" spans="1:25" ht="98">
+      <c r="A34" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="C34" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="26"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="H34" s="39"/>
+      <c r="I34" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+    </row>
+    <row r="35" spans="1:25" ht="14">
+      <c r="A35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+    </row>
+    <row r="36" spans="1:25" ht="28">
+      <c r="A36" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I36" s="28"/>
+    </row>
+    <row r="37" spans="1:25" ht="14">
+      <c r="A37" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="26">
+        <v>3</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="14">
+      <c r="A38" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="26">
+        <v>4.3986700174439997E-3</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="14">
+      <c r="A39" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+    </row>
+    <row r="40" spans="1:25" ht="14">
+      <c r="A40" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="14">
+      <c r="A41" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="14">
+      <c r="A42" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+    </row>
+    <row r="43" spans="1:25" ht="42">
+      <c r="A43" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I43" s="28"/>
+    </row>
+    <row r="44" spans="1:25" ht="14">
+      <c r="A44" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="15"/>
+    </row>
+    <row r="45" spans="1:25" ht="14">
+      <c r="A45" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="50"/>
+      <c r="D45" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="26">
+        <v>0</v>
+      </c>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I45" s="28"/>
+    </row>
+    <row r="46" spans="1:25" ht="28">
+      <c r="A46" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="26">
+        <v>4</v>
+      </c>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="14">
+      <c r="A47" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I47" s="28"/>
+    </row>
+    <row r="48" spans="1:25" ht="13">
+      <c r="A48" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="B48" s="48" t="s">
+        <v>303</v>
+      </c>
+      <c r="C48" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="D48" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="63"/>
+      <c r="F48" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="49"/>
+      <c r="O48" s="49"/>
+      <c r="P48" s="49"/>
+      <c r="Q48" s="49"/>
+      <c r="R48" s="49"/>
+      <c r="S48" s="49"/>
+      <c r="T48" s="49"/>
+      <c r="U48" s="49"/>
+      <c r="V48" s="49"/>
+      <c r="W48" s="49"/>
+      <c r="X48" s="49"/>
+      <c r="Y48" s="49"/>
+    </row>
+    <row r="49" spans="1:25" ht="14">
+      <c r="A49" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H49" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I49" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="28">
+      <c r="A50" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I50" s="28"/>
+    </row>
+    <row r="51" spans="1:25" ht="14">
+      <c r="A51" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="26"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" ht="14">
+      <c r="A52" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="26">
+        <v>0</v>
+      </c>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I52" s="28"/>
+    </row>
+    <row r="53" spans="1:25" ht="14">
+      <c r="A53" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" s="26">
+        <v>4</v>
+      </c>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I53" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" ht="14">
+      <c r="A54" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I54" s="28"/>
+    </row>
+    <row r="55" spans="1:25" ht="14">
+      <c r="A55" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="26">
+        <v>23.5</v>
+      </c>
+      <c r="F55" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G55" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H55" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I55" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" ht="14">
+      <c r="A56" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E56" s="26"/>
+      <c r="F56" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G56" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H56" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I56" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" ht="14">
+      <c r="A57" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E57" s="26"/>
+      <c r="F57" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G57" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H57" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I57" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" ht="13">
+      <c r="A58" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="B58" s="48" t="s">
+        <v>305</v>
+      </c>
+      <c r="C58" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="D58" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="E58" s="63"/>
+      <c r="F58" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="49"/>
+      <c r="K58" s="49"/>
+      <c r="L58" s="49"/>
+      <c r="M58" s="49"/>
+      <c r="N58" s="49"/>
+      <c r="O58" s="49"/>
+      <c r="P58" s="49"/>
+      <c r="Q58" s="49"/>
+      <c r="R58" s="49"/>
+      <c r="S58" s="49"/>
+      <c r="T58" s="49"/>
+      <c r="U58" s="49"/>
+      <c r="V58" s="49"/>
+      <c r="W58" s="49"/>
+      <c r="X58" s="49"/>
+      <c r="Y58" s="49"/>
+    </row>
+    <row r="59" spans="1:25" ht="13">
+      <c r="A59" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="B59" s="48" t="s">
+        <v>306</v>
+      </c>
+      <c r="C59" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="D59" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="E59" s="63"/>
+      <c r="F59" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="49"/>
+      <c r="K59" s="49"/>
+      <c r="L59" s="49"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="49"/>
+      <c r="O59" s="49"/>
+      <c r="P59" s="49"/>
+      <c r="Q59" s="49"/>
+      <c r="R59" s="49"/>
+      <c r="S59" s="49"/>
+      <c r="T59" s="49"/>
+      <c r="U59" s="49"/>
+      <c r="V59" s="49"/>
+      <c r="W59" s="49"/>
+      <c r="X59" s="49"/>
+      <c r="Y59" s="49"/>
+    </row>
+    <row r="60" spans="1:25" ht="14">
+      <c r="A60" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="F60" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G60" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H60" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I60" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" ht="13">
+      <c r="A61" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="B61" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="C61" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="D61" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="E61" s="63"/>
+      <c r="F61" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="G61" s="64"/>
+      <c r="H61" s="64"/>
+      <c r="I61" s="64"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="49"/>
+      <c r="M61" s="49"/>
+      <c r="N61" s="49"/>
+      <c r="O61" s="49"/>
+      <c r="P61" s="49"/>
+      <c r="Q61" s="49"/>
+      <c r="R61" s="49"/>
+      <c r="S61" s="49"/>
+      <c r="T61" s="49"/>
+      <c r="U61" s="49"/>
+      <c r="V61" s="49"/>
+      <c r="W61" s="49"/>
+      <c r="X61" s="49"/>
+      <c r="Y61" s="49"/>
+    </row>
+    <row r="62" spans="1:25" ht="14">
+      <c r="A62" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62" s="26">
+        <v>6371346.0489999996</v>
+      </c>
+      <c r="F62" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G62" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H62" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I62" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" ht="14">
+      <c r="A63" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63" s="26">
+        <v>595177.49399999995</v>
+      </c>
+      <c r="F63" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G63" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H63" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I63" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" ht="14">
+      <c r="A64" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" s="26">
+        <v>44298</v>
+      </c>
+      <c r="F64" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G64" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H64" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I64" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" ht="14">
+      <c r="A65" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" s="26">
+        <v>9</v>
+      </c>
+      <c r="F65" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G65" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H65" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I65" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" ht="14">
+      <c r="A66" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" s="26">
+        <v>16878</v>
+      </c>
+      <c r="F66" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G66" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H66" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I66" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" ht="14">
+      <c r="A67" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" s="26">
+        <v>120</v>
+      </c>
+      <c r="F67" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I67" s="28"/>
+    </row>
+    <row r="68" spans="1:24" ht="14">
+      <c r="A68" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68" s="26">
+        <v>1447</v>
+      </c>
+      <c r="F68" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G68" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H68" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I68" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" ht="14">
+      <c r="A69" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="F69" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G69" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H69" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I69" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" ht="13">
+      <c r="A70" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C70" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="F70" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G70" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H70" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I70" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" ht="27.75" customHeight="1">
+      <c r="A71" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E71" s="26">
+        <v>1447</v>
+      </c>
+      <c r="F71" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G71" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H71" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I71" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" ht="14">
+      <c r="A72" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72" s="26">
+        <v>99999</v>
+      </c>
+      <c r="F72" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G72" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H72" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I72" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" ht="25.5" customHeight="1">
+      <c r="A73" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="15"/>
+      <c r="S73" s="15"/>
+      <c r="T73" s="15"/>
+      <c r="U73" s="15"/>
+      <c r="V73" s="15"/>
+      <c r="W73" s="15"/>
+      <c r="X73" s="15"/>
+    </row>
+    <row r="74" spans="1:24" s="37" customFormat="1" ht="14">
+      <c r="A74" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B74" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="C74" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="D74" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E74" s="35">
+        <v>11.5</v>
+      </c>
+      <c r="F74" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="G74" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="H74" s="33"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="36"/>
+      <c r="N74" s="36"/>
+      <c r="O74" s="36"/>
+      <c r="P74" s="36"/>
+      <c r="Q74" s="36"/>
+      <c r="R74" s="36"/>
+      <c r="S74" s="36"/>
+      <c r="T74" s="36"/>
+      <c r="U74" s="36"/>
+      <c r="V74" s="36"/>
+      <c r="W74" s="36"/>
+      <c r="X74" s="36"/>
+    </row>
+    <row r="75" spans="1:24" ht="14">
+      <c r="A75" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C75" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="F75" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G75" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H75" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I75" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" ht="14">
+      <c r="A76" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E76" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="F76" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I76" s="28"/>
+    </row>
+    <row r="77" spans="1:24" ht="14">
+      <c r="A77" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F77" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I77" s="28"/>
+    </row>
+    <row r="78" spans="1:24" ht="28">
+      <c r="A78" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="F78" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G78" s="28"/>
+      <c r="H78" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I78" s="28"/>
+    </row>
+    <row r="79" spans="1:24" ht="42">
+      <c r="A79" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="26">
+        <v>9646.0068593826509</v>
+      </c>
+      <c r="F79" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G79" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H79" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I79" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" ht="30" customHeight="1">
+      <c r="A80" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="F80" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G80" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H80" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I80" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" ht="30" customHeight="1">
+      <c r="A81" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F81" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G81" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H81" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I81" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" ht="14">
+      <c r="A82" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C82" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="F82" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G82" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H82" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I82" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" ht="14">
+      <c r="A83" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B83" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C83" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="F83" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G83" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H83" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I83" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" ht="14">
+      <c r="A84" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B84" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E84" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="F84" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G84" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H84" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I84" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" ht="14">
+      <c r="A85" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="C85" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="F85" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G85" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H85" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I85" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" ht="14">
+      <c r="A86" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B86" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" s="26">
+        <v>53600000</v>
+      </c>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I86" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" ht="14">
+      <c r="A87" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="C87" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" s="26">
+        <v>13400000</v>
+      </c>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I87" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" ht="14">
+      <c r="A88" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B88" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C88" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E88" s="26">
+        <v>3</v>
+      </c>
+      <c r="F88" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G88" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H88" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I88" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" ht="13">
+      <c r="A89" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="B89" s="48" t="s">
+        <v>309</v>
+      </c>
+      <c r="C89" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="E89" s="51">
+        <v>2.15</v>
+      </c>
+      <c r="F89" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="G89" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="H89" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="I89" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="J89" s="49"/>
+      <c r="K89" s="49"/>
+      <c r="L89" s="49"/>
+      <c r="M89" s="49"/>
+      <c r="N89" s="49"/>
+      <c r="O89" s="49"/>
+      <c r="P89" s="49"/>
+      <c r="Q89" s="49"/>
+      <c r="R89" s="49"/>
+      <c r="S89" s="49"/>
+      <c r="T89" s="49"/>
+      <c r="U89" s="49"/>
+      <c r="V89" s="49"/>
+      <c r="W89" s="49"/>
+      <c r="X89" s="49"/>
+      <c r="Y89" s="49"/>
+    </row>
+    <row r="90" spans="1:25" ht="13">
+      <c r="A90" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="B90" s="48" t="s">
+        <v>310</v>
+      </c>
+      <c r="C90" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="E90" s="51">
+        <v>1.93</v>
+      </c>
+      <c r="F90" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="G90" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="H90" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="I90" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="J90" s="49"/>
+      <c r="K90" s="49"/>
+      <c r="L90" s="49"/>
+      <c r="M90" s="49"/>
+      <c r="N90" s="49"/>
+      <c r="O90" s="49"/>
+      <c r="P90" s="49"/>
+      <c r="Q90" s="49"/>
+      <c r="R90" s="49"/>
+      <c r="S90" s="49"/>
+      <c r="T90" s="49"/>
+      <c r="U90" s="49"/>
+      <c r="V90" s="49"/>
+      <c r="W90" s="49"/>
+      <c r="X90" s="49"/>
+      <c r="Y90" s="49"/>
+    </row>
+    <row r="91" spans="1:25" ht="13">
+      <c r="A91" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="B91" s="48" t="s">
+        <v>311</v>
+      </c>
+      <c r="C91" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="E91" s="51">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="F91" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="G91" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="H91" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="I91" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="J91" s="49"/>
+      <c r="K91" s="49"/>
+      <c r="L91" s="49"/>
+      <c r="M91" s="49"/>
+      <c r="N91" s="49"/>
+      <c r="O91" s="49"/>
+      <c r="P91" s="49"/>
+      <c r="Q91" s="49"/>
+      <c r="R91" s="49"/>
+      <c r="S91" s="49"/>
+      <c r="T91" s="49"/>
+      <c r="U91" s="49"/>
+      <c r="V91" s="49"/>
+      <c r="W91" s="49"/>
+      <c r="X91" s="49"/>
+      <c r="Y91" s="49"/>
+    </row>
+    <row r="92" spans="1:25" ht="14">
+      <c r="A92" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B92" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C92" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" s="26">
+        <v>157500000</v>
+      </c>
+      <c r="F92" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G92" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H92" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I92" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" ht="13">
+      <c r="A93" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B93" s="26"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I93" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" ht="14">
+      <c r="A94" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B94" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C94" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E94" s="26">
+        <v>1</v>
+      </c>
+      <c r="F94" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G94" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H94" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I94" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" ht="13">
+      <c r="A95" s="48" t="s">
+        <v>295</v>
+      </c>
+      <c r="B95" s="48" t="s">
+        <v>312</v>
+      </c>
+      <c r="C95" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="D95" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="E95" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="F95" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="G95" s="64"/>
+      <c r="H95" s="64"/>
+      <c r="I95" s="64"/>
+      <c r="J95" s="49"/>
+      <c r="K95" s="49"/>
+      <c r="L95" s="49"/>
+      <c r="M95" s="49"/>
+      <c r="N95" s="49"/>
+      <c r="O95" s="49"/>
+      <c r="P95" s="49"/>
+      <c r="Q95" s="49"/>
+      <c r="R95" s="49"/>
+      <c r="S95" s="49"/>
+      <c r="T95" s="49"/>
+      <c r="U95" s="49"/>
+      <c r="V95" s="49"/>
+      <c r="W95" s="49"/>
+      <c r="X95" s="49"/>
+      <c r="Y95" s="49"/>
+    </row>
+    <row r="96" spans="1:25" ht="13">
+      <c r="A96" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="B96" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="C96" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="D96" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="E96" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="F96" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="G96" s="64"/>
+      <c r="H96" s="64"/>
+      <c r="I96" s="64"/>
+      <c r="J96" s="49"/>
+      <c r="K96" s="49"/>
+      <c r="L96" s="49"/>
+      <c r="M96" s="49"/>
+      <c r="N96" s="49"/>
+      <c r="O96" s="49"/>
+      <c r="P96" s="49"/>
+      <c r="Q96" s="49"/>
+      <c r="R96" s="49"/>
+      <c r="S96" s="49"/>
+      <c r="T96" s="49"/>
+      <c r="U96" s="49"/>
+      <c r="V96" s="49"/>
+      <c r="W96" s="49"/>
+      <c r="X96" s="49"/>
+      <c r="Y96" s="49"/>
+    </row>
+    <row r="97" spans="1:24" ht="13">
+      <c r="A97" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B97" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="C97" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D97" s="19"/>
+      <c r="F97" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G97" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H97" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I97" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" ht="14">
+      <c r="A98" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B98" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E98" s="17"/>
+      <c r="F98" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+    </row>
+    <row r="99" spans="1:24" ht="28">
+      <c r="A99" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B99" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C99" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E99" s="17"/>
+      <c r="F99" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G99" s="28"/>
+      <c r="H99" s="28"/>
+      <c r="I99" s="28"/>
+    </row>
+    <row r="100" spans="1:24" ht="14">
+      <c r="A100" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B100" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="C100" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="F100" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G100" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H100" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I100" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" ht="14">
+      <c r="A101" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B101" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C101" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E101" s="26">
+        <v>23.5</v>
+      </c>
+      <c r="F101" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G101" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H101" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I101" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" ht="14">
+      <c r="A102" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B102" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="C102" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="F102" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G102" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H102" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I102" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" s="37" customFormat="1" ht="14">
+      <c r="A103" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="B103" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="C103" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="D103" s="34"/>
+      <c r="E103" s="35"/>
+      <c r="F103" s="33"/>
+      <c r="G103" s="33"/>
+      <c r="H103" s="33"/>
+      <c r="I103" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="J103" s="36"/>
+      <c r="K103" s="36"/>
+      <c r="L103" s="36"/>
+      <c r="M103" s="36"/>
+      <c r="N103" s="36"/>
+      <c r="O103" s="36"/>
+      <c r="P103" s="36"/>
+      <c r="Q103" s="36"/>
+      <c r="R103" s="36"/>
+      <c r="S103" s="36"/>
+      <c r="T103" s="36"/>
+      <c r="U103" s="36"/>
+      <c r="V103" s="36"/>
+      <c r="W103" s="36"/>
+      <c r="X103" s="36"/>
+    </row>
+    <row r="104" spans="1:24" ht="14">
+      <c r="A104" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B104" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C104" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E104" s="26">
+        <v>0.95172208887999998</v>
+      </c>
+      <c r="F104" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G104" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H104" s="28"/>
+      <c r="I104" s="28"/>
+    </row>
+    <row r="105" spans="1:24" ht="14">
+      <c r="A105" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B105" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="C105" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E105" s="26"/>
+      <c r="F105" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G105" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H105" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I105" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="J105" s="15"/>
+      <c r="K105" s="15"/>
+      <c r="L105" s="15"/>
+      <c r="M105" s="15"/>
+      <c r="N105" s="15"/>
+      <c r="O105" s="15"/>
+      <c r="P105" s="15"/>
+      <c r="Q105" s="15"/>
+      <c r="R105" s="15"/>
+      <c r="S105" s="15"/>
+      <c r="T105" s="15"/>
+      <c r="U105" s="15"/>
+      <c r="V105" s="15"/>
+      <c r="W105" s="15"/>
+      <c r="X105" s="15"/>
+    </row>
+    <row r="106" spans="1:24" ht="14">
+      <c r="A106" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B106" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C106" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E106" s="35">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F106" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G106" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H106" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I106" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" ht="14">
+      <c r="A107" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B107" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C107" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="F107" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G107" s="28"/>
+      <c r="H107" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I107" s="28"/>
+    </row>
+    <row r="108" spans="1:24" ht="15" customHeight="1">
+      <c r="A108" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B108" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C108" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108" s="26">
+        <v>2893</v>
+      </c>
+      <c r="F108" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G108" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H108" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I108" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" ht="28">
+      <c r="A109" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="B109" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="C109" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E109" s="22">
+        <v>2.4</v>
+      </c>
+      <c r="F109" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="G109" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="H109" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="I109" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="J109" s="23"/>
+      <c r="K109" s="23"/>
+      <c r="L109" s="23"/>
+      <c r="M109" s="23"/>
+      <c r="N109" s="23"/>
+      <c r="O109" s="23"/>
+      <c r="P109" s="23"/>
+      <c r="Q109" s="23"/>
+      <c r="R109" s="23"/>
+      <c r="S109" s="23"/>
+      <c r="T109" s="23"/>
+      <c r="U109" s="23"/>
+      <c r="V109" s="23"/>
+      <c r="W109" s="23"/>
+      <c r="X109" s="23"/>
+    </row>
+    <row r="110" spans="1:24" ht="14">
+      <c r="A110" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B110" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="C110" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D110" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="E110" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="F110" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G110" s="28"/>
+      <c r="H110" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I110" s="28"/>
+    </row>
+    <row r="111" spans="1:24" ht="14">
+      <c r="A111" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B111" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="C111" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D111" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="E111" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="F111" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G111" s="28"/>
+      <c r="H111" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I111" s="28"/>
+    </row>
+    <row r="112" spans="1:24" ht="14">
+      <c r="A112" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B112" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="C112" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D112" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="E112" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="F112" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G112" s="28"/>
+      <c r="H112" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I112" s="28"/>
+    </row>
+    <row r="113" spans="1:24" ht="14">
+      <c r="A113" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B113" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="C113" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="F113" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G113" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H113" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I113" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" ht="14">
+      <c r="A114" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B114" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="C114" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="F114" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G114" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H114" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I114" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" s="37" customFormat="1" ht="14">
+      <c r="A115" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="B115" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="C115" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="D115" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E115" s="35"/>
+      <c r="F115" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="G115" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="H115" s="33"/>
+      <c r="I115" s="33"/>
+      <c r="J115" s="36"/>
+      <c r="K115" s="36"/>
+      <c r="L115" s="36"/>
+      <c r="M115" s="36"/>
+      <c r="N115" s="36"/>
+      <c r="O115" s="36"/>
+      <c r="P115" s="36"/>
+      <c r="Q115" s="36"/>
+      <c r="R115" s="36"/>
+      <c r="S115" s="36"/>
+      <c r="T115" s="36"/>
+      <c r="U115" s="36"/>
+      <c r="V115" s="36"/>
+      <c r="W115" s="36"/>
+      <c r="X115" s="36"/>
+    </row>
+    <row r="116" spans="1:24" ht="14">
+      <c r="A116" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B116" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="C116" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="F116" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G116" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H116" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I116" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" ht="14">
+      <c r="A117" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B117" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="C117" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="F117" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G117" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H117" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="I117" s="28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" ht="13">
+      <c r="A118" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="B118" s="24"/>
+      <c r="C118" s="53"/>
+      <c r="D118" s="25"/>
+      <c r="E118" s="53"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="25"/>
+      <c r="H118" s="25"/>
+      <c r="I118" s="25"/>
+      <c r="J118" s="24"/>
+      <c r="K118" s="24"/>
+      <c r="L118" s="24"/>
+      <c r="M118" s="24"/>
+      <c r="N118" s="24"/>
+      <c r="O118" s="24"/>
+      <c r="P118" s="24"/>
+      <c r="Q118" s="24"/>
+      <c r="R118" s="24"/>
+      <c r="S118" s="24"/>
+      <c r="T118" s="24"/>
+      <c r="U118" s="24"/>
+      <c r="V118" s="24"/>
+      <c r="W118" s="24"/>
+      <c r="X118" s="24"/>
+    </row>
+    <row r="119" spans="1:24" ht="13">
+      <c r="A119" s="3"/>
+      <c r="C119" s="50"/>
+      <c r="D119" s="19"/>
+      <c r="F119" s="28"/>
+      <c r="G119" s="28"/>
+      <c r="H119" s="28"/>
+      <c r="I119" s="28"/>
+    </row>
+    <row r="120" spans="1:24" ht="82.5" customHeight="1">
+      <c r="B120" s="1"/>
+      <c r="C120" s="57"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="50"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
+      <c r="O120" s="4"/>
+      <c r="P120" s="4"/>
+      <c r="Q120" s="4"/>
+      <c r="R120" s="4"/>
+      <c r="S120" s="4"/>
+      <c r="T120" s="4"/>
+      <c r="U120" s="4"/>
+      <c r="V120" s="4"/>
+      <c r="W120" s="4"/>
+      <c r="X120" s="4"/>
+    </row>
+    <row r="121" spans="1:24" ht="13">
+      <c r="C121" s="50"/>
+      <c r="D121" s="19"/>
+    </row>
+    <row r="122" spans="1:24" ht="13">
+      <c r="C122" s="50"/>
+      <c r="D122" s="19"/>
+    </row>
+    <row r="123" spans="1:24" ht="13">
+      <c r="A123" s="18"/>
+      <c r="C123" s="50"/>
+      <c r="D123" s="19"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="19"/>
+      <c r="I123" s="19"/>
+    </row>
+    <row r="124" spans="1:24" ht="13">
+      <c r="A124" s="18"/>
+      <c r="D124" s="19"/>
+      <c r="F124" s="19"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="19"/>
+      <c r="I124" s="19"/>
+    </row>
+    <row r="125" spans="1:24" ht="13">
+      <c r="D125" s="19"/>
+    </row>
+    <row r="126" spans="1:24" ht="13">
+      <c r="D126" s="19"/>
+    </row>
+    <row r="127" spans="1:24" ht="13">
+      <c r="D127" s="19"/>
+    </row>
+    <row r="128" spans="1:24" ht="13">
+      <c r="D128" s="19"/>
+    </row>
+    <row r="129" spans="4:4" ht="13">
+      <c r="D129" s="19"/>
+    </row>
+    <row r="130" spans="4:4" ht="13">
+      <c r="D130" s="19"/>
+    </row>
+    <row r="131" spans="4:4" ht="13">
+      <c r="D131" s="19"/>
+    </row>
+    <row r="132" spans="4:4" ht="13">
+      <c r="D132" s="19"/>
+    </row>
+    <row r="133" spans="4:4" ht="13">
+      <c r="D133" s="19"/>
+    </row>
+    <row r="134" spans="4:4" ht="13">
+      <c r="D134" s="19"/>
+    </row>
+    <row r="135" spans="4:4" ht="13">
+      <c r="D135" s="19"/>
+    </row>
+    <row r="136" spans="4:4" ht="13">
+      <c r="D136" s="19"/>
+    </row>
+    <row r="137" spans="4:4" ht="13">
+      <c r="D137" s="19"/>
+    </row>
+    <row r="138" spans="4:4" ht="13">
+      <c r="D138" s="19"/>
+    </row>
+    <row r="139" spans="4:4" ht="13">
+      <c r="D139" s="19"/>
+    </row>
+    <row r="140" spans="4:4" ht="13">
+      <c r="D140" s="19"/>
+    </row>
+    <row r="141" spans="4:4" ht="13">
+      <c r="D141" s="19"/>
+    </row>
+    <row r="142" spans="4:4" ht="13">
+      <c r="D142" s="19"/>
+    </row>
+    <row r="143" spans="4:4" ht="13">
+      <c r="D143" s="19"/>
+    </row>
+    <row r="144" spans="4:4" ht="13">
+      <c r="D144" s="19"/>
+    </row>
+    <row r="145" spans="4:4" ht="13">
+      <c r="D145" s="19"/>
+    </row>
+    <row r="146" spans="4:4" ht="13">
+      <c r="D146" s="19"/>
+    </row>
+    <row r="147" spans="4:4" ht="13">
+      <c r="D147" s="19"/>
+    </row>
+    <row r="148" spans="4:4" ht="13">
+      <c r="D148" s="19"/>
+    </row>
+    <row r="149" spans="4:4" ht="13">
+      <c r="D149" s="19"/>
+    </row>
+    <row r="150" spans="4:4" ht="13">
+      <c r="D150" s="19"/>
+    </row>
+    <row r="151" spans="4:4" ht="13">
+      <c r="D151" s="19"/>
+    </row>
+    <row r="152" spans="4:4" ht="13">
+      <c r="D152" s="19"/>
+    </row>
+    <row r="153" spans="4:4" ht="13">
+      <c r="D153" s="19"/>
+    </row>
+    <row r="154" spans="4:4" ht="13">
+      <c r="D154" s="19"/>
+    </row>
+    <row r="155" spans="4:4" ht="13">
+      <c r="D155" s="19"/>
+    </row>
+    <row r="156" spans="4:4" ht="13">
+      <c r="D156" s="19"/>
+    </row>
+    <row r="157" spans="4:4" ht="13">
+      <c r="D157" s="19"/>
+    </row>
+    <row r="158" spans="4:4" ht="13">
+      <c r="D158" s="19"/>
+    </row>
+    <row r="159" spans="4:4" ht="13">
+      <c r="D159" s="19"/>
+    </row>
+    <row r="160" spans="4:4" ht="13">
+      <c r="D160" s="19"/>
+    </row>
+    <row r="161" spans="4:4" ht="13">
+      <c r="D161" s="19"/>
+    </row>
+    <row r="162" spans="4:4" ht="13">
+      <c r="D162" s="19"/>
+    </row>
+    <row r="163" spans="4:4" ht="13">
+      <c r="D163" s="19"/>
+    </row>
+    <row r="164" spans="4:4" ht="13">
+      <c r="D164" s="19"/>
+    </row>
+    <row r="165" spans="4:4" ht="13">
+      <c r="D165" s="19"/>
+    </row>
+    <row r="166" spans="4:4" ht="13">
+      <c r="D166" s="19"/>
+    </row>
+    <row r="167" spans="4:4" ht="13">
+      <c r="D167" s="19"/>
+    </row>
+    <row r="168" spans="4:4" ht="13">
+      <c r="D168" s="19"/>
+    </row>
+    <row r="169" spans="4:4" ht="13">
+      <c r="D169" s="19"/>
+    </row>
+    <row r="170" spans="4:4" ht="13">
+      <c r="D170" s="19"/>
+    </row>
+    <row r="171" spans="4:4" ht="13">
+      <c r="D171" s="19"/>
+    </row>
+    <row r="172" spans="4:4" ht="13">
+      <c r="D172" s="19"/>
+    </row>
+    <row r="173" spans="4:4" ht="13">
+      <c r="D173" s="19"/>
+    </row>
+    <row r="174" spans="4:4" ht="13">
+      <c r="D174" s="19"/>
+    </row>
+    <row r="175" spans="4:4" ht="13">
+      <c r="D175" s="19"/>
+    </row>
+    <row r="176" spans="4:4" ht="13">
+      <c r="D176" s="19"/>
+    </row>
+    <row r="177" spans="4:4" ht="13">
+      <c r="D177" s="19"/>
+    </row>
+    <row r="178" spans="4:4" ht="13">
+      <c r="D178" s="19"/>
+    </row>
+    <row r="179" spans="4:4" ht="13">
+      <c r="D179" s="19"/>
+    </row>
+    <row r="180" spans="4:4" ht="13">
+      <c r="D180" s="19"/>
+    </row>
+    <row r="181" spans="4:4" ht="13">
+      <c r="D181" s="19"/>
+    </row>
+    <row r="182" spans="4:4" ht="13">
+      <c r="D182" s="19"/>
+    </row>
+    <row r="183" spans="4:4" ht="13">
+      <c r="D183" s="19"/>
+    </row>
+    <row r="184" spans="4:4" ht="13">
+      <c r="D184" s="19"/>
+    </row>
+    <row r="185" spans="4:4" ht="13">
+      <c r="D185" s="19"/>
+    </row>
+    <row r="186" spans="4:4" ht="13">
+      <c r="D186" s="19"/>
+    </row>
+    <row r="187" spans="4:4" ht="13">
+      <c r="D187" s="19"/>
+    </row>
+    <row r="188" spans="4:4" ht="13">
+      <c r="D188" s="19"/>
+    </row>
+    <row r="189" spans="4:4" ht="13">
+      <c r="D189" s="19"/>
+    </row>
+    <row r="190" spans="4:4" ht="13">
+      <c r="D190" s="19"/>
+    </row>
+    <row r="191" spans="4:4" ht="13">
+      <c r="D191" s="19"/>
+    </row>
+    <row r="192" spans="4:4" ht="13">
+      <c r="D192" s="19"/>
+    </row>
+    <row r="193" spans="4:4" ht="13">
+      <c r="D193" s="19"/>
+    </row>
+    <row r="194" spans="4:4" ht="13">
+      <c r="D194" s="19"/>
+    </row>
+    <row r="195" spans="4:4" ht="13">
+      <c r="D195" s="19"/>
+    </row>
+    <row r="196" spans="4:4" ht="13">
+      <c r="D196" s="19"/>
+    </row>
+    <row r="197" spans="4:4" ht="13">
+      <c r="D197" s="19"/>
+    </row>
+    <row r="198" spans="4:4" ht="13">
+      <c r="D198" s="19"/>
+    </row>
+    <row r="199" spans="4:4" ht="13">
+      <c r="D199" s="19"/>
+    </row>
+    <row r="200" spans="4:4" ht="13">
+      <c r="D200" s="19"/>
+    </row>
+    <row r="201" spans="4:4" ht="13">
+      <c r="D201" s="19"/>
+    </row>
+    <row r="202" spans="4:4" ht="13">
+      <c r="D202" s="19"/>
+    </row>
+    <row r="203" spans="4:4" ht="13">
+      <c r="D203" s="19"/>
+    </row>
+    <row r="204" spans="4:4" ht="13">
+      <c r="D204" s="19"/>
+    </row>
+    <row r="205" spans="4:4" ht="13">
+      <c r="D205" s="19"/>
+    </row>
+    <row r="206" spans="4:4" ht="13">
+      <c r="D206" s="19"/>
+    </row>
+    <row r="207" spans="4:4" ht="13">
+      <c r="D207" s="19"/>
+    </row>
+    <row r="208" spans="4:4" ht="13">
+      <c r="D208" s="19"/>
+    </row>
+    <row r="209" spans="4:4" ht="13">
+      <c r="D209" s="19"/>
+    </row>
+    <row r="210" spans="4:4" ht="13">
+      <c r="D210" s="19"/>
+    </row>
+    <row r="211" spans="4:4" ht="13">
+      <c r="D211" s="19"/>
+    </row>
+    <row r="212" spans="4:4" ht="13">
+      <c r="D212" s="19"/>
+    </row>
+    <row r="213" spans="4:4" ht="13">
+      <c r="D213" s="19"/>
+    </row>
+    <row r="214" spans="4:4" ht="13">
+      <c r="D214" s="19"/>
+    </row>
+    <row r="215" spans="4:4" ht="13">
+      <c r="D215" s="19"/>
+    </row>
+    <row r="216" spans="4:4" ht="13">
+      <c r="D216" s="19"/>
+    </row>
+    <row r="217" spans="4:4" ht="13">
+      <c r="D217" s="19"/>
+    </row>
+    <row r="218" spans="4:4" ht="13">
+      <c r="D218" s="19"/>
+    </row>
+    <row r="219" spans="4:4" ht="13">
+      <c r="D219" s="19"/>
+    </row>
+    <row r="220" spans="4:4" ht="13">
+      <c r="D220" s="19"/>
+    </row>
+    <row r="221" spans="4:4" ht="13">
+      <c r="D221" s="19"/>
+    </row>
+    <row r="222" spans="4:4" ht="13">
+      <c r="D222" s="19"/>
+    </row>
+    <row r="223" spans="4:4" ht="13">
+      <c r="D223" s="19"/>
+    </row>
+    <row r="224" spans="4:4" ht="13">
+      <c r="D224" s="19"/>
+    </row>
+    <row r="225" spans="4:4" ht="13">
+      <c r="D225" s="19"/>
+    </row>
+    <row r="226" spans="4:4" ht="13">
+      <c r="D226" s="19"/>
+    </row>
+    <row r="227" spans="4:4" ht="13">
+      <c r="D227" s="19"/>
+    </row>
+    <row r="228" spans="4:4" ht="13">
+      <c r="D228" s="19"/>
+    </row>
+    <row r="229" spans="4:4" ht="13">
+      <c r="D229" s="19"/>
+    </row>
+    <row r="230" spans="4:4" ht="13">
+      <c r="D230" s="19"/>
+    </row>
+    <row r="231" spans="4:4" ht="13">
+      <c r="D231" s="19"/>
+    </row>
+    <row r="232" spans="4:4" ht="13">
+      <c r="D232" s="19"/>
+    </row>
+    <row r="233" spans="4:4" ht="13">
+      <c r="D233" s="19"/>
+    </row>
+    <row r="234" spans="4:4" ht="13">
+      <c r="D234" s="19"/>
+    </row>
+    <row r="235" spans="4:4" ht="13">
+      <c r="D235" s="19"/>
+    </row>
+    <row r="236" spans="4:4" ht="13">
+      <c r="D236" s="19"/>
+    </row>
+    <row r="237" spans="4:4" ht="13">
+      <c r="D237" s="19"/>
+    </row>
+    <row r="238" spans="4:4" ht="13">
+      <c r="D238" s="19"/>
+    </row>
+    <row r="239" spans="4:4" ht="13">
+      <c r="D239" s="19"/>
+    </row>
+    <row r="240" spans="4:4" ht="13">
+      <c r="D240" s="19"/>
+    </row>
+    <row r="241" spans="4:4" ht="13">
+      <c r="D241" s="19"/>
+    </row>
+    <row r="242" spans="4:4" ht="13">
+      <c r="D242" s="19"/>
+    </row>
+    <row r="243" spans="4:4" ht="13">
+      <c r="D243" s="19"/>
+    </row>
+    <row r="244" spans="4:4" ht="13">
+      <c r="D244" s="19"/>
+    </row>
+    <row r="245" spans="4:4" ht="13">
+      <c r="D245" s="19"/>
+    </row>
+    <row r="246" spans="4:4" ht="13">
+      <c r="D246" s="19"/>
+    </row>
+    <row r="247" spans="4:4" ht="13">
+      <c r="D247" s="19"/>
+    </row>
+    <row r="248" spans="4:4" ht="13">
+      <c r="D248" s="19"/>
+    </row>
+    <row r="249" spans="4:4" ht="13">
+      <c r="D249" s="19"/>
+    </row>
+    <row r="250" spans="4:4" ht="13">
+      <c r="D250" s="19"/>
+    </row>
+    <row r="251" spans="4:4" ht="13">
+      <c r="D251" s="19"/>
+    </row>
+    <row r="252" spans="4:4" ht="13">
+      <c r="D252" s="19"/>
+    </row>
+    <row r="253" spans="4:4" ht="13">
+      <c r="D253" s="19"/>
+    </row>
+    <row r="254" spans="4:4" ht="13">
+      <c r="D254" s="19"/>
+    </row>
+    <row r="255" spans="4:4" ht="13">
+      <c r="D255" s="19"/>
+    </row>
+    <row r="256" spans="4:4" ht="13">
+      <c r="D256" s="19"/>
+    </row>
+    <row r="257" spans="4:4" ht="13">
+      <c r="D257" s="19"/>
+    </row>
+    <row r="258" spans="4:4" ht="13">
+      <c r="D258" s="19"/>
+    </row>
+    <row r="259" spans="4:4" ht="13">
+      <c r="D259" s="19"/>
+    </row>
+    <row r="260" spans="4:4" ht="13">
+      <c r="D260" s="19"/>
+    </row>
+    <row r="261" spans="4:4" ht="13">
+      <c r="D261" s="19"/>
+    </row>
+    <row r="262" spans="4:4" ht="13">
+      <c r="D262" s="19"/>
+    </row>
+    <row r="263" spans="4:4" ht="13">
+      <c r="D263" s="19"/>
+    </row>
+    <row r="264" spans="4:4" ht="13">
+      <c r="D264" s="19"/>
+    </row>
+    <row r="265" spans="4:4" ht="13">
+      <c r="D265" s="19"/>
+    </row>
+    <row r="266" spans="4:4" ht="13">
+      <c r="D266" s="19"/>
+    </row>
+    <row r="267" spans="4:4" ht="13">
+      <c r="D267" s="19"/>
+    </row>
+    <row r="268" spans="4:4" ht="13">
+      <c r="D268" s="19"/>
+    </row>
+    <row r="269" spans="4:4" ht="13">
+      <c r="D269" s="19"/>
+    </row>
+    <row r="270" spans="4:4" ht="13">
+      <c r="D270" s="19"/>
+    </row>
+    <row r="271" spans="4:4" ht="13">
+      <c r="D271" s="19"/>
+    </row>
+    <row r="272" spans="4:4" ht="13">
+      <c r="D272" s="19"/>
+    </row>
+    <row r="273" spans="4:4" ht="13">
+      <c r="D273" s="19"/>
+    </row>
+    <row r="274" spans="4:4" ht="13">
+      <c r="D274" s="19"/>
+    </row>
+    <row r="275" spans="4:4" ht="13">
+      <c r="D275" s="19"/>
+    </row>
+    <row r="276" spans="4:4" ht="13">
+      <c r="D276" s="19"/>
+    </row>
+    <row r="277" spans="4:4" ht="13">
+      <c r="D277" s="19"/>
+    </row>
+    <row r="278" spans="4:4" ht="13">
+      <c r="D278" s="19"/>
+    </row>
+    <row r="279" spans="4:4" ht="13">
+      <c r="D279" s="19"/>
+    </row>
+    <row r="280" spans="4:4" ht="13">
+      <c r="D280" s="19"/>
+    </row>
+    <row r="281" spans="4:4" ht="13">
+      <c r="D281" s="19"/>
+    </row>
+    <row r="282" spans="4:4" ht="13">
+      <c r="D282" s="19"/>
+    </row>
+    <row r="283" spans="4:4" ht="13">
+      <c r="D283" s="19"/>
+    </row>
+    <row r="284" spans="4:4" ht="13">
+      <c r="D284" s="19"/>
+    </row>
+    <row r="285" spans="4:4" ht="13">
+      <c r="D285" s="19"/>
+    </row>
+    <row r="286" spans="4:4" ht="13">
+      <c r="D286" s="19"/>
+    </row>
+    <row r="287" spans="4:4" ht="13">
+      <c r="D287" s="19"/>
+    </row>
+    <row r="288" spans="4:4" ht="13">
+      <c r="D288" s="19"/>
+    </row>
+    <row r="289" spans="4:4" ht="13">
+      <c r="D289" s="19"/>
+    </row>
+    <row r="290" spans="4:4" ht="13">
+      <c r="D290" s="19"/>
+    </row>
+    <row r="291" spans="4:4" ht="13">
+      <c r="D291" s="19"/>
+    </row>
+    <row r="292" spans="4:4" ht="13">
+      <c r="D292" s="19"/>
+    </row>
+    <row r="293" spans="4:4" ht="13">
+      <c r="D293" s="19"/>
+    </row>
+    <row r="294" spans="4:4" ht="13">
+      <c r="D294" s="19"/>
+    </row>
+    <row r="295" spans="4:4" ht="13">
+      <c r="D295" s="19"/>
+    </row>
+    <row r="296" spans="4:4" ht="13">
+      <c r="D296" s="19"/>
+    </row>
+    <row r="297" spans="4:4" ht="13">
+      <c r="D297" s="19"/>
+    </row>
+    <row r="298" spans="4:4" ht="13">
+      <c r="D298" s="19"/>
+    </row>
+    <row r="299" spans="4:4" ht="13">
+      <c r="D299" s="19"/>
+    </row>
+    <row r="300" spans="4:4" ht="13">
+      <c r="D300" s="19"/>
+    </row>
+    <row r="301" spans="4:4" ht="13">
+      <c r="D301" s="19"/>
+    </row>
+    <row r="302" spans="4:4" ht="13">
+      <c r="D302" s="19"/>
+    </row>
+    <row r="303" spans="4:4" ht="13">
+      <c r="D303" s="19"/>
+    </row>
+    <row r="304" spans="4:4" ht="13">
+      <c r="D304" s="19"/>
+    </row>
+    <row r="305" spans="4:4" ht="13">
+      <c r="D305" s="19"/>
+    </row>
+    <row r="306" spans="4:4" ht="13">
+      <c r="D306" s="19"/>
+    </row>
+    <row r="307" spans="4:4" ht="13">
+      <c r="D307" s="19"/>
+    </row>
+    <row r="308" spans="4:4" ht="13">
+      <c r="D308" s="19"/>
+    </row>
+    <row r="309" spans="4:4" ht="13">
+      <c r="D309" s="19"/>
+    </row>
+    <row r="310" spans="4:4" ht="13">
+      <c r="D310" s="19"/>
+    </row>
+    <row r="311" spans="4:4" ht="13">
+      <c r="D311" s="19"/>
+    </row>
+    <row r="312" spans="4:4" ht="13">
+      <c r="D312" s="19"/>
+    </row>
+    <row r="313" spans="4:4" ht="13">
+      <c r="D313" s="19"/>
+    </row>
+    <row r="314" spans="4:4" ht="13">
+      <c r="D314" s="19"/>
+    </row>
+    <row r="315" spans="4:4" ht="13">
+      <c r="D315" s="19"/>
+    </row>
+    <row r="316" spans="4:4" ht="13">
+      <c r="D316" s="19"/>
+    </row>
+    <row r="317" spans="4:4" ht="13">
+      <c r="D317" s="19"/>
+    </row>
+    <row r="318" spans="4:4" ht="13">
+      <c r="D318" s="19"/>
+    </row>
+    <row r="319" spans="4:4" ht="13">
+      <c r="D319" s="19"/>
+    </row>
+    <row r="320" spans="4:4" ht="13">
+      <c r="D320" s="19"/>
+    </row>
+    <row r="321" spans="4:4" ht="13">
+      <c r="D321" s="19"/>
+    </row>
+    <row r="322" spans="4:4" ht="13">
+      <c r="D322" s="19"/>
+    </row>
+    <row r="323" spans="4:4" ht="13">
+      <c r="D323" s="19"/>
+    </row>
+    <row r="324" spans="4:4" ht="13">
+      <c r="D324" s="19"/>
+    </row>
+    <row r="325" spans="4:4" ht="13">
+      <c r="D325" s="19"/>
+    </row>
+    <row r="326" spans="4:4" ht="13">
+      <c r="D326" s="19"/>
+    </row>
+    <row r="327" spans="4:4" ht="13">
+      <c r="D327" s="19"/>
+    </row>
+    <row r="328" spans="4:4" ht="13">
+      <c r="D328" s="19"/>
+    </row>
+    <row r="329" spans="4:4" ht="13">
+      <c r="D329" s="19"/>
+    </row>
+    <row r="330" spans="4:4" ht="13">
+      <c r="D330" s="19"/>
+    </row>
+    <row r="331" spans="4:4" ht="13">
+      <c r="D331" s="19"/>
+    </row>
+    <row r="332" spans="4:4" ht="13">
+      <c r="D332" s="19"/>
+    </row>
+    <row r="333" spans="4:4" ht="13">
+      <c r="D333" s="19"/>
+    </row>
+    <row r="334" spans="4:4" ht="13">
+      <c r="D334" s="19"/>
+    </row>
+    <row r="335" spans="4:4" ht="13">
+      <c r="D335" s="19"/>
+    </row>
+    <row r="336" spans="4:4" ht="13">
+      <c r="D336" s="19"/>
+    </row>
+    <row r="337" spans="4:4" ht="13">
+      <c r="D337" s="19"/>
+    </row>
+    <row r="338" spans="4:4" ht="13">
+      <c r="D338" s="19"/>
+    </row>
+    <row r="339" spans="4:4" ht="13">
+      <c r="D339" s="19"/>
+    </row>
+    <row r="340" spans="4:4" ht="13">
+      <c r="D340" s="19"/>
+    </row>
+    <row r="341" spans="4:4" ht="13">
+      <c r="D341" s="19"/>
+    </row>
+    <row r="342" spans="4:4" ht="13">
+      <c r="D342" s="19"/>
+    </row>
+    <row r="343" spans="4:4" ht="13">
+      <c r="D343" s="19"/>
+    </row>
+    <row r="344" spans="4:4" ht="13">
+      <c r="D344" s="19"/>
+    </row>
+    <row r="345" spans="4:4" ht="13">
+      <c r="D345" s="19"/>
+    </row>
+    <row r="346" spans="4:4" ht="13">
+      <c r="D346" s="19"/>
+    </row>
+    <row r="347" spans="4:4" ht="13">
+      <c r="D347" s="19"/>
+    </row>
+    <row r="348" spans="4:4" ht="13">
+      <c r="D348" s="19"/>
+    </row>
+    <row r="349" spans="4:4" ht="13">
+      <c r="D349" s="19"/>
+    </row>
+    <row r="350" spans="4:4" ht="13">
+      <c r="D350" s="19"/>
+    </row>
+    <row r="351" spans="4:4" ht="13">
+      <c r="D351" s="19"/>
+    </row>
+    <row r="352" spans="4:4" ht="13">
+      <c r="D352" s="19"/>
+    </row>
+    <row r="353" spans="4:4" ht="13">
+      <c r="D353" s="19"/>
+    </row>
+    <row r="354" spans="4:4" ht="13">
+      <c r="D354" s="19"/>
+    </row>
+    <row r="355" spans="4:4" ht="13">
+      <c r="D355" s="19"/>
+    </row>
+    <row r="356" spans="4:4" ht="13">
+      <c r="D356" s="19"/>
+    </row>
+    <row r="357" spans="4:4" ht="13">
+      <c r="D357" s="19"/>
+    </row>
+    <row r="358" spans="4:4" ht="13">
+      <c r="D358" s="19"/>
+    </row>
+    <row r="359" spans="4:4" ht="13">
+      <c r="D359" s="19"/>
+    </row>
+    <row r="360" spans="4:4" ht="13">
+      <c r="D360" s="19"/>
+    </row>
+    <row r="361" spans="4:4" ht="13">
+      <c r="D361" s="19"/>
+    </row>
+    <row r="362" spans="4:4" ht="13">
+      <c r="D362" s="19"/>
+    </row>
+    <row r="363" spans="4:4" ht="13">
+      <c r="D363" s="19"/>
+    </row>
+    <row r="364" spans="4:4" ht="13">
+      <c r="D364" s="19"/>
+    </row>
+    <row r="365" spans="4:4" ht="13">
+      <c r="D365" s="19"/>
+    </row>
+    <row r="366" spans="4:4" ht="13">
+      <c r="D366" s="19"/>
+    </row>
+    <row r="367" spans="4:4" ht="13">
+      <c r="D367" s="19"/>
+    </row>
+    <row r="368" spans="4:4" ht="13">
+      <c r="D368" s="19"/>
+    </row>
+    <row r="369" spans="4:4" ht="13">
+      <c r="D369" s="19"/>
+    </row>
+    <row r="370" spans="4:4" ht="13">
+      <c r="D370" s="19"/>
+    </row>
+    <row r="371" spans="4:4" ht="13">
+      <c r="D371" s="19"/>
+    </row>
+    <row r="372" spans="4:4" ht="13">
+      <c r="D372" s="19"/>
+    </row>
+    <row r="373" spans="4:4" ht="13">
+      <c r="D373" s="19"/>
+    </row>
+    <row r="374" spans="4:4" ht="13">
+      <c r="D374" s="19"/>
+    </row>
+    <row r="375" spans="4:4" ht="13">
+      <c r="D375" s="19"/>
+    </row>
+    <row r="376" spans="4:4" ht="13">
+      <c r="D376" s="19"/>
+    </row>
+    <row r="377" spans="4:4" ht="13">
+      <c r="D377" s="19"/>
+    </row>
+    <row r="378" spans="4:4" ht="13">
+      <c r="D378" s="19"/>
+    </row>
+    <row r="379" spans="4:4" ht="13">
+      <c r="D379" s="19"/>
+    </row>
+    <row r="380" spans="4:4" ht="13">
+      <c r="D380" s="19"/>
+    </row>
+    <row r="381" spans="4:4" ht="13">
+      <c r="D381" s="19"/>
+    </row>
+    <row r="382" spans="4:4" ht="13">
+      <c r="D382" s="19"/>
+    </row>
+    <row r="383" spans="4:4" ht="13">
+      <c r="D383" s="19"/>
+    </row>
+    <row r="384" spans="4:4" ht="13">
+      <c r="D384" s="19"/>
+    </row>
+    <row r="385" spans="4:4" ht="13">
+      <c r="D385" s="19"/>
+    </row>
+    <row r="386" spans="4:4" ht="13">
+      <c r="D386" s="19"/>
+    </row>
+    <row r="387" spans="4:4" ht="13">
+      <c r="D387" s="19"/>
+    </row>
+    <row r="388" spans="4:4" ht="13">
+      <c r="D388" s="19"/>
+    </row>
+    <row r="389" spans="4:4" ht="13">
+      <c r="D389" s="19"/>
+    </row>
+    <row r="390" spans="4:4" ht="13">
+      <c r="D390" s="19"/>
+    </row>
+    <row r="391" spans="4:4" ht="13">
+      <c r="D391" s="19"/>
+    </row>
+    <row r="392" spans="4:4" ht="13">
+      <c r="D392" s="19"/>
+    </row>
+    <row r="393" spans="4:4" ht="13">
+      <c r="D393" s="19"/>
+    </row>
+    <row r="394" spans="4:4" ht="13">
+      <c r="D394" s="19"/>
+    </row>
+    <row r="395" spans="4:4" ht="13">
+      <c r="D395" s="19"/>
+    </row>
+    <row r="396" spans="4:4" ht="13">
+      <c r="D396" s="19"/>
+    </row>
+    <row r="397" spans="4:4" ht="13">
+      <c r="D397" s="19"/>
+    </row>
+    <row r="398" spans="4:4" ht="13">
+      <c r="D398" s="19"/>
+    </row>
+    <row r="399" spans="4:4" ht="13">
+      <c r="D399" s="19"/>
+    </row>
+    <row r="400" spans="4:4" ht="13">
+      <c r="D400" s="19"/>
+    </row>
+    <row r="401" spans="4:4" ht="13">
+      <c r="D401" s="19"/>
+    </row>
+    <row r="402" spans="4:4" ht="13">
+      <c r="D402" s="19"/>
+    </row>
+    <row r="403" spans="4:4" ht="13">
+      <c r="D403" s="19"/>
+    </row>
+    <row r="404" spans="4:4" ht="13">
+      <c r="D404" s="19"/>
+    </row>
+    <row r="405" spans="4:4" ht="13">
+      <c r="D405" s="19"/>
+    </row>
+    <row r="406" spans="4:4" ht="13">
+      <c r="D406" s="19"/>
+    </row>
+    <row r="407" spans="4:4" ht="13">
+      <c r="D407" s="19"/>
+    </row>
+    <row r="408" spans="4:4" ht="13">
+      <c r="D408" s="19"/>
+    </row>
+    <row r="409" spans="4:4" ht="13">
+      <c r="D409" s="19"/>
+    </row>
+    <row r="410" spans="4:4" ht="13">
+      <c r="D410" s="19"/>
+    </row>
+    <row r="411" spans="4:4" ht="13">
+      <c r="D411" s="19"/>
+    </row>
+    <row r="412" spans="4:4" ht="13">
+      <c r="D412" s="19"/>
+    </row>
+    <row r="413" spans="4:4" ht="13">
+      <c r="D413" s="19"/>
+    </row>
+    <row r="414" spans="4:4" ht="13">
+      <c r="D414" s="19"/>
+    </row>
+    <row r="415" spans="4:4" ht="13">
+      <c r="D415" s="19"/>
+    </row>
+    <row r="416" spans="4:4" ht="13">
+      <c r="D416" s="19"/>
+    </row>
+    <row r="417" spans="4:4" ht="13">
+      <c r="D417" s="19"/>
+    </row>
+    <row r="418" spans="4:4" ht="13">
+      <c r="D418" s="19"/>
+    </row>
+    <row r="419" spans="4:4" ht="13">
+      <c r="D419" s="19"/>
+    </row>
+    <row r="420" spans="4:4" ht="13">
+      <c r="D420" s="19"/>
+    </row>
+    <row r="421" spans="4:4" ht="13">
+      <c r="D421" s="19"/>
+    </row>
+    <row r="422" spans="4:4" ht="13">
+      <c r="D422" s="19"/>
+    </row>
+    <row r="423" spans="4:4" ht="13">
+      <c r="D423" s="19"/>
+    </row>
+    <row r="424" spans="4:4" ht="13">
+      <c r="D424" s="19"/>
+    </row>
+    <row r="425" spans="4:4" ht="13">
+      <c r="D425" s="19"/>
+    </row>
+    <row r="426" spans="4:4" ht="13">
+      <c r="D426" s="19"/>
+    </row>
+    <row r="427" spans="4:4" ht="13">
+      <c r="D427" s="19"/>
+    </row>
+    <row r="428" spans="4:4" ht="13">
+      <c r="D428" s="19"/>
+    </row>
+    <row r="429" spans="4:4" ht="13">
+      <c r="D429" s="19"/>
+    </row>
+    <row r="430" spans="4:4" ht="13">
+      <c r="D430" s="19"/>
+    </row>
+    <row r="431" spans="4:4" ht="13">
+      <c r="D431" s="19"/>
+    </row>
+    <row r="432" spans="4:4" ht="13">
+      <c r="D432" s="19"/>
+    </row>
+    <row r="433" spans="4:4" ht="13">
+      <c r="D433" s="19"/>
+    </row>
+    <row r="434" spans="4:4" ht="13">
+      <c r="D434" s="19"/>
+    </row>
+    <row r="435" spans="4:4" ht="13">
+      <c r="D435" s="19"/>
+    </row>
+    <row r="436" spans="4:4" ht="13">
+      <c r="D436" s="19"/>
+    </row>
+    <row r="437" spans="4:4" ht="13">
+      <c r="D437" s="19"/>
+    </row>
+    <row r="438" spans="4:4" ht="13">
+      <c r="D438" s="19"/>
+    </row>
+    <row r="439" spans="4:4" ht="13">
+      <c r="D439" s="19"/>
+    </row>
+    <row r="440" spans="4:4" ht="13">
+      <c r="D440" s="19"/>
+    </row>
+    <row r="441" spans="4:4" ht="13">
+      <c r="D441" s="19"/>
+    </row>
+    <row r="442" spans="4:4" ht="13">
+      <c r="D442" s="19"/>
+    </row>
+    <row r="443" spans="4:4" ht="13">
+      <c r="D443" s="19"/>
+    </row>
+    <row r="444" spans="4:4" ht="13">
+      <c r="D444" s="19"/>
+    </row>
+    <row r="445" spans="4:4" ht="13">
+      <c r="D445" s="19"/>
+    </row>
+    <row r="446" spans="4:4" ht="13">
+      <c r="D446" s="19"/>
+    </row>
+    <row r="447" spans="4:4" ht="13">
+      <c r="D447" s="19"/>
+    </row>
+    <row r="448" spans="4:4" ht="13">
+      <c r="D448" s="19"/>
+    </row>
+    <row r="449" spans="4:4" ht="13">
+      <c r="D449" s="19"/>
+    </row>
+    <row r="450" spans="4:4" ht="13">
+      <c r="D450" s="19"/>
+    </row>
+    <row r="451" spans="4:4" ht="13">
+      <c r="D451" s="19"/>
+    </row>
+    <row r="452" spans="4:4" ht="13">
+      <c r="D452" s="19"/>
+    </row>
+    <row r="453" spans="4:4" ht="13">
+      <c r="D453" s="19"/>
+    </row>
+    <row r="454" spans="4:4" ht="13">
+      <c r="D454" s="19"/>
+    </row>
+    <row r="455" spans="4:4" ht="13">
+      <c r="D455" s="19"/>
+    </row>
+    <row r="456" spans="4:4" ht="13">
+      <c r="D456" s="19"/>
+    </row>
+    <row r="457" spans="4:4" ht="13">
+      <c r="D457" s="19"/>
+    </row>
+    <row r="458" spans="4:4" ht="13">
+      <c r="D458" s="19"/>
+    </row>
+    <row r="459" spans="4:4" ht="13">
+      <c r="D459" s="19"/>
+    </row>
+    <row r="460" spans="4:4" ht="13">
+      <c r="D460" s="19"/>
+    </row>
+    <row r="461" spans="4:4" ht="13">
+      <c r="D461" s="19"/>
+    </row>
+    <row r="462" spans="4:4" ht="13">
+      <c r="D462" s="19"/>
+    </row>
+    <row r="463" spans="4:4" ht="13">
+      <c r="D463" s="19"/>
+    </row>
+    <row r="464" spans="4:4" ht="13">
+      <c r="D464" s="19"/>
+    </row>
+    <row r="465" spans="4:4" ht="13">
+      <c r="D465" s="19"/>
+    </row>
+    <row r="466" spans="4:4" ht="13">
+      <c r="D466" s="19"/>
+    </row>
+    <row r="467" spans="4:4" ht="13">
+      <c r="D467" s="19"/>
+    </row>
+    <row r="468" spans="4:4" ht="13">
+      <c r="D468" s="19"/>
+    </row>
+    <row r="469" spans="4:4" ht="13">
+      <c r="D469" s="19"/>
+    </row>
+    <row r="470" spans="4:4" ht="13">
+      <c r="D470" s="19"/>
+    </row>
+    <row r="471" spans="4:4" ht="13">
+      <c r="D471" s="19"/>
+    </row>
+    <row r="472" spans="4:4" ht="13">
+      <c r="D472" s="19"/>
+    </row>
+    <row r="473" spans="4:4" ht="13">
+      <c r="D473" s="19"/>
+    </row>
+    <row r="474" spans="4:4" ht="13">
+      <c r="D474" s="19"/>
+    </row>
+    <row r="475" spans="4:4" ht="13">
+      <c r="D475" s="19"/>
+    </row>
+    <row r="476" spans="4:4" ht="13">
+      <c r="D476" s="19"/>
+    </row>
+    <row r="477" spans="4:4" ht="13">
+      <c r="D477" s="19"/>
+    </row>
+    <row r="478" spans="4:4" ht="13">
+      <c r="D478" s="19"/>
+    </row>
+    <row r="479" spans="4:4" ht="13">
+      <c r="D479" s="19"/>
+    </row>
+    <row r="480" spans="4:4" ht="13">
+      <c r="D480" s="19"/>
+    </row>
+    <row r="481" spans="4:4" ht="13">
+      <c r="D481" s="19"/>
+    </row>
+    <row r="482" spans="4:4" ht="13">
+      <c r="D482" s="19"/>
+    </row>
+    <row r="483" spans="4:4" ht="13">
+      <c r="D483" s="19"/>
+    </row>
+    <row r="484" spans="4:4" ht="13">
+      <c r="D484" s="19"/>
+    </row>
+    <row r="485" spans="4:4" ht="13">
+      <c r="D485" s="19"/>
+    </row>
+    <row r="486" spans="4:4" ht="13">
+      <c r="D486" s="19"/>
+    </row>
+    <row r="487" spans="4:4" ht="13">
+      <c r="D487" s="19"/>
+    </row>
+    <row r="488" spans="4:4" ht="13">
+      <c r="D488" s="19"/>
+    </row>
+    <row r="489" spans="4:4" ht="13">
+      <c r="D489" s="19"/>
+    </row>
+    <row r="490" spans="4:4" ht="13">
+      <c r="D490" s="19"/>
+    </row>
+    <row r="491" spans="4:4" ht="13">
+      <c r="D491" s="19"/>
+    </row>
+    <row r="492" spans="4:4" ht="13">
+      <c r="D492" s="19"/>
+    </row>
+    <row r="493" spans="4:4" ht="13">
+      <c r="D493" s="19"/>
+    </row>
+    <row r="494" spans="4:4" ht="13">
+      <c r="D494" s="19"/>
+    </row>
+    <row r="495" spans="4:4" ht="13">
+      <c r="D495" s="19"/>
+    </row>
+    <row r="496" spans="4:4" ht="13">
+      <c r="D496" s="19"/>
+    </row>
+    <row r="497" spans="4:4" ht="13">
+      <c r="D497" s="19"/>
+    </row>
+    <row r="498" spans="4:4" ht="13">
+      <c r="D498" s="19"/>
+    </row>
+    <row r="499" spans="4:4" ht="13">
+      <c r="D499" s="19"/>
+    </row>
+    <row r="500" spans="4:4" ht="13">
+      <c r="D500" s="19"/>
+    </row>
+    <row r="501" spans="4:4" ht="13">
+      <c r="D501" s="19"/>
+    </row>
+    <row r="502" spans="4:4" ht="13">
+      <c r="D502" s="19"/>
+    </row>
+    <row r="503" spans="4:4" ht="13">
+      <c r="D503" s="19"/>
+    </row>
+    <row r="504" spans="4:4" ht="13">
+      <c r="D504" s="19"/>
+    </row>
+    <row r="505" spans="4:4" ht="13">
+      <c r="D505" s="19"/>
+    </row>
+    <row r="506" spans="4:4" ht="13">
+      <c r="D506" s="19"/>
+    </row>
+    <row r="507" spans="4:4" ht="13">
+      <c r="D507" s="19"/>
+    </row>
+    <row r="508" spans="4:4" ht="13">
+      <c r="D508" s="19"/>
+    </row>
+    <row r="509" spans="4:4" ht="13">
+      <c r="D509" s="19"/>
+    </row>
+    <row r="510" spans="4:4" ht="13">
+      <c r="D510" s="19"/>
+    </row>
+    <row r="511" spans="4:4" ht="13">
+      <c r="D511" s="19"/>
+    </row>
+    <row r="512" spans="4:4" ht="13">
+      <c r="D512" s="19"/>
+    </row>
+    <row r="513" spans="4:4" ht="13">
+      <c r="D513" s="19"/>
+    </row>
+    <row r="514" spans="4:4" ht="13">
+      <c r="D514" s="19"/>
+    </row>
+    <row r="515" spans="4:4" ht="13">
+      <c r="D515" s="19"/>
+    </row>
+    <row r="516" spans="4:4" ht="13">
+      <c r="D516" s="19"/>
+    </row>
+    <row r="517" spans="4:4" ht="13">
+      <c r="D517" s="19"/>
+    </row>
+    <row r="518" spans="4:4" ht="13">
+      <c r="D518" s="19"/>
+    </row>
+    <row r="519" spans="4:4" ht="13">
+      <c r="D519" s="19"/>
+    </row>
+    <row r="520" spans="4:4" ht="13">
+      <c r="D520" s="19"/>
+    </row>
+    <row r="521" spans="4:4" ht="13">
+      <c r="D521" s="19"/>
+    </row>
+    <row r="522" spans="4:4" ht="13">
+      <c r="D522" s="19"/>
+    </row>
+    <row r="523" spans="4:4" ht="13">
+      <c r="D523" s="19"/>
+    </row>
+    <row r="524" spans="4:4" ht="13">
+      <c r="D524" s="19"/>
+    </row>
+    <row r="525" spans="4:4" ht="13">
+      <c r="D525" s="19"/>
+    </row>
+    <row r="526" spans="4:4" ht="13">
+      <c r="D526" s="19"/>
+    </row>
+    <row r="527" spans="4:4" ht="13">
+      <c r="D527" s="19"/>
+    </row>
+    <row r="528" spans="4:4" ht="13">
+      <c r="D528" s="19"/>
+    </row>
+    <row r="529" spans="4:4" ht="13">
+      <c r="D529" s="19"/>
+    </row>
+    <row r="530" spans="4:4" ht="13">
+      <c r="D530" s="19"/>
+    </row>
+    <row r="531" spans="4:4" ht="13">
+      <c r="D531" s="19"/>
+    </row>
+    <row r="532" spans="4:4" ht="13">
+      <c r="D532" s="19"/>
+    </row>
+    <row r="533" spans="4:4" ht="13">
+      <c r="D533" s="19"/>
+    </row>
+    <row r="534" spans="4:4" ht="13">
+      <c r="D534" s="19"/>
+    </row>
+    <row r="535" spans="4:4" ht="13">
+      <c r="D535" s="19"/>
+    </row>
+    <row r="536" spans="4:4" ht="13">
+      <c r="D536" s="19"/>
+    </row>
+    <row r="537" spans="4:4" ht="13">
+      <c r="D537" s="19"/>
+    </row>
+    <row r="538" spans="4:4" ht="13">
+      <c r="D538" s="19"/>
+    </row>
+    <row r="539" spans="4:4" ht="13">
+      <c r="D539" s="19"/>
+    </row>
+    <row r="540" spans="4:4" ht="13">
+      <c r="D540" s="19"/>
+    </row>
+    <row r="541" spans="4:4" ht="13">
+      <c r="D541" s="19"/>
+    </row>
+    <row r="542" spans="4:4" ht="13">
+      <c r="D542" s="19"/>
+    </row>
+    <row r="543" spans="4:4" ht="13">
+      <c r="D543" s="19"/>
+    </row>
+    <row r="544" spans="4:4" ht="13">
+      <c r="D544" s="19"/>
+    </row>
+    <row r="545" spans="4:4" ht="13">
+      <c r="D545" s="19"/>
+    </row>
+    <row r="546" spans="4:4" ht="13">
+      <c r="D546" s="19"/>
+    </row>
+    <row r="547" spans="4:4" ht="13">
+      <c r="D547" s="19"/>
+    </row>
+    <row r="548" spans="4:4" ht="13">
+      <c r="D548" s="19"/>
+    </row>
+    <row r="549" spans="4:4" ht="13">
+      <c r="D549" s="19"/>
+    </row>
+    <row r="550" spans="4:4" ht="13">
+      <c r="D550" s="19"/>
+    </row>
+    <row r="551" spans="4:4" ht="13">
+      <c r="D551" s="19"/>
+    </row>
+    <row r="552" spans="4:4" ht="13">
+      <c r="D552" s="19"/>
+    </row>
+    <row r="553" spans="4:4" ht="13">
+      <c r="D553" s="19"/>
+    </row>
+    <row r="554" spans="4:4" ht="13">
+      <c r="D554" s="19"/>
+    </row>
+    <row r="555" spans="4:4" ht="13">
+      <c r="D555" s="19"/>
+    </row>
+    <row r="556" spans="4:4" ht="13">
+      <c r="D556" s="19"/>
+    </row>
+    <row r="557" spans="4:4" ht="13">
+      <c r="D557" s="19"/>
+    </row>
+    <row r="558" spans="4:4" ht="13">
+      <c r="D558" s="19"/>
+    </row>
+    <row r="559" spans="4:4" ht="13">
+      <c r="D559" s="19"/>
+    </row>
+    <row r="560" spans="4:4" ht="13">
+      <c r="D560" s="19"/>
+    </row>
+    <row r="561" spans="4:4" ht="13">
+      <c r="D561" s="19"/>
+    </row>
+    <row r="562" spans="4:4" ht="13">
+      <c r="D562" s="19"/>
+    </row>
+    <row r="563" spans="4:4" ht="13">
+      <c r="D563" s="19"/>
+    </row>
+    <row r="564" spans="4:4" ht="13">
+      <c r="D564" s="19"/>
+    </row>
+    <row r="565" spans="4:4" ht="13">
+      <c r="D565" s="19"/>
+    </row>
+    <row r="566" spans="4:4" ht="13">
+      <c r="D566" s="19"/>
+    </row>
+    <row r="567" spans="4:4" ht="13">
+      <c r="D567" s="19"/>
+    </row>
+    <row r="568" spans="4:4" ht="13">
+      <c r="D568" s="19"/>
+    </row>
+    <row r="569" spans="4:4" ht="13">
+      <c r="D569" s="19"/>
+    </row>
+    <row r="570" spans="4:4" ht="13">
+      <c r="D570" s="19"/>
+    </row>
+    <row r="571" spans="4:4" ht="13">
+      <c r="D571" s="19"/>
+    </row>
+    <row r="572" spans="4:4" ht="13">
+      <c r="D572" s="19"/>
+    </row>
+    <row r="573" spans="4:4" ht="13">
+      <c r="D573" s="19"/>
+    </row>
+    <row r="574" spans="4:4" ht="13">
+      <c r="D574" s="19"/>
+    </row>
+    <row r="575" spans="4:4" ht="13">
+      <c r="D575" s="19"/>
+    </row>
+    <row r="576" spans="4:4" ht="13">
+      <c r="D576" s="19"/>
+    </row>
+    <row r="577" spans="4:4" ht="13">
+      <c r="D577" s="19"/>
+    </row>
+    <row r="578" spans="4:4" ht="13">
+      <c r="D578" s="19"/>
+    </row>
+    <row r="579" spans="4:4" ht="13">
+      <c r="D579" s="19"/>
+    </row>
+    <row r="580" spans="4:4" ht="13">
+      <c r="D580" s="19"/>
+    </row>
+    <row r="581" spans="4:4" ht="13">
+      <c r="D581" s="19"/>
+    </row>
+    <row r="582" spans="4:4" ht="13">
+      <c r="D582" s="19"/>
+    </row>
+    <row r="583" spans="4:4" ht="13">
+      <c r="D583" s="19"/>
+    </row>
+    <row r="584" spans="4:4" ht="13">
+      <c r="D584" s="19"/>
+    </row>
+    <row r="585" spans="4:4" ht="13">
+      <c r="D585" s="19"/>
+    </row>
+    <row r="586" spans="4:4" ht="13">
+      <c r="D586" s="19"/>
+    </row>
+    <row r="587" spans="4:4" ht="13">
+      <c r="D587" s="19"/>
+    </row>
+    <row r="588" spans="4:4" ht="13">
+      <c r="D588" s="19"/>
+    </row>
+    <row r="589" spans="4:4" ht="13">
+      <c r="D589" s="19"/>
+    </row>
+    <row r="590" spans="4:4" ht="13">
+      <c r="D590" s="19"/>
+    </row>
+    <row r="591" spans="4:4" ht="13">
+      <c r="D591" s="19"/>
+    </row>
+    <row r="592" spans="4:4" ht="13">
+      <c r="D592" s="19"/>
+    </row>
+    <row r="593" spans="4:4" ht="13">
+      <c r="D593" s="19"/>
+    </row>
+    <row r="594" spans="4:4" ht="13">
+      <c r="D594" s="19"/>
+    </row>
+    <row r="595" spans="4:4" ht="13">
+      <c r="D595" s="19"/>
+    </row>
+    <row r="596" spans="4:4" ht="13">
+      <c r="D596" s="19"/>
+    </row>
+    <row r="597" spans="4:4" ht="13">
+      <c r="D597" s="19"/>
+    </row>
+    <row r="598" spans="4:4" ht="13">
+      <c r="D598" s="19"/>
+    </row>
+    <row r="599" spans="4:4" ht="13">
+      <c r="D599" s="19"/>
+    </row>
+    <row r="600" spans="4:4" ht="13">
+      <c r="D600" s="19"/>
+    </row>
+    <row r="601" spans="4:4" ht="13">
+      <c r="D601" s="19"/>
+    </row>
+    <row r="602" spans="4:4" ht="13">
+      <c r="D602" s="19"/>
+    </row>
+    <row r="603" spans="4:4" ht="13">
+      <c r="D603" s="19"/>
+    </row>
+    <row r="604" spans="4:4" ht="13">
+      <c r="D604" s="19"/>
+    </row>
+    <row r="605" spans="4:4" ht="13">
+      <c r="D605" s="19"/>
+    </row>
+    <row r="606" spans="4:4" ht="13">
+      <c r="D606" s="19"/>
+    </row>
+    <row r="607" spans="4:4" ht="13">
+      <c r="D607" s="19"/>
+    </row>
+    <row r="608" spans="4:4" ht="13">
+      <c r="D608" s="19"/>
+    </row>
+    <row r="609" spans="4:4" ht="13">
+      <c r="D609" s="19"/>
+    </row>
+    <row r="610" spans="4:4" ht="13">
+      <c r="D610" s="19"/>
+    </row>
+    <row r="611" spans="4:4" ht="13">
+      <c r="D611" s="19"/>
+    </row>
+    <row r="612" spans="4:4" ht="13">
+      <c r="D612" s="19"/>
+    </row>
+    <row r="613" spans="4:4" ht="13">
+      <c r="D613" s="19"/>
+    </row>
+    <row r="614" spans="4:4" ht="13">
+      <c r="D614" s="19"/>
+    </row>
+    <row r="615" spans="4:4" ht="13">
+      <c r="D615" s="19"/>
+    </row>
+    <row r="616" spans="4:4" ht="13">
+      <c r="D616" s="19"/>
+    </row>
+    <row r="617" spans="4:4" ht="13">
+      <c r="D617" s="19"/>
+    </row>
+    <row r="618" spans="4:4" ht="13">
+      <c r="D618" s="19"/>
+    </row>
+    <row r="619" spans="4:4" ht="13">
+      <c r="D619" s="19"/>
+    </row>
+    <row r="620" spans="4:4" ht="13">
+      <c r="D620" s="19"/>
+    </row>
+    <row r="621" spans="4:4" ht="13">
+      <c r="D621" s="19"/>
+    </row>
+    <row r="622" spans="4:4" ht="13">
+      <c r="D622" s="19"/>
+    </row>
+    <row r="623" spans="4:4" ht="13">
+      <c r="D623" s="19"/>
+    </row>
+    <row r="624" spans="4:4" ht="13">
+      <c r="D624" s="19"/>
+    </row>
+    <row r="625" spans="4:4" ht="13">
+      <c r="D625" s="19"/>
+    </row>
+    <row r="626" spans="4:4" ht="13">
+      <c r="D626" s="19"/>
+    </row>
+    <row r="627" spans="4:4" ht="13">
+      <c r="D627" s="19"/>
+    </row>
+    <row r="628" spans="4:4" ht="13">
+      <c r="D628" s="19"/>
+    </row>
+    <row r="629" spans="4:4" ht="13">
+      <c r="D629" s="19"/>
+    </row>
+    <row r="630" spans="4:4" ht="13">
+      <c r="D630" s="19"/>
+    </row>
+    <row r="631" spans="4:4" ht="13">
+      <c r="D631" s="19"/>
+    </row>
+    <row r="632" spans="4:4" ht="13">
+      <c r="D632" s="19"/>
+    </row>
+    <row r="633" spans="4:4" ht="13">
+      <c r="D633" s="19"/>
+    </row>
+    <row r="634" spans="4:4" ht="13">
+      <c r="D634" s="19"/>
+    </row>
+    <row r="635" spans="4:4" ht="13">
+      <c r="D635" s="19"/>
+    </row>
+    <row r="636" spans="4:4" ht="13">
+      <c r="D636" s="19"/>
+    </row>
+    <row r="637" spans="4:4" ht="13">
+      <c r="D637" s="19"/>
+    </row>
+    <row r="638" spans="4:4" ht="13">
+      <c r="D638" s="19"/>
+    </row>
+    <row r="639" spans="4:4" ht="13">
+      <c r="D639" s="19"/>
+    </row>
+    <row r="640" spans="4:4" ht="13">
+      <c r="D640" s="19"/>
+    </row>
+    <row r="641" spans="4:4" ht="13">
+      <c r="D641" s="19"/>
+    </row>
+    <row r="642" spans="4:4" ht="13">
+      <c r="D642" s="19"/>
+    </row>
+    <row r="643" spans="4:4" ht="13">
+      <c r="D643" s="19"/>
+    </row>
+    <row r="644" spans="4:4" ht="13">
+      <c r="D644" s="19"/>
+    </row>
+    <row r="645" spans="4:4" ht="13">
+      <c r="D645" s="19"/>
+    </row>
+    <row r="646" spans="4:4" ht="13">
+      <c r="D646" s="19"/>
+    </row>
+    <row r="647" spans="4:4" ht="13">
+      <c r="D647" s="19"/>
+    </row>
+    <row r="648" spans="4:4" ht="13">
+      <c r="D648" s="19"/>
+    </row>
+    <row r="649" spans="4:4" ht="13">
+      <c r="D649" s="19"/>
+    </row>
+    <row r="650" spans="4:4" ht="13">
+      <c r="D650" s="19"/>
+    </row>
+    <row r="651" spans="4:4" ht="13">
+      <c r="D651" s="19"/>
+    </row>
+    <row r="652" spans="4:4" ht="13">
+      <c r="D652" s="19"/>
+    </row>
+    <row r="653" spans="4:4" ht="13">
+      <c r="D653" s="19"/>
+    </row>
+    <row r="654" spans="4:4" ht="13">
+      <c r="D654" s="19"/>
+    </row>
+    <row r="655" spans="4:4" ht="13">
+      <c r="D655" s="19"/>
+    </row>
+    <row r="656" spans="4:4" ht="13">
+      <c r="D656" s="19"/>
+    </row>
+    <row r="657" spans="4:4" ht="13">
+      <c r="D657" s="19"/>
+    </row>
+    <row r="658" spans="4:4" ht="13">
+      <c r="D658" s="19"/>
+    </row>
+    <row r="659" spans="4:4" ht="13">
+      <c r="D659" s="19"/>
+    </row>
+    <row r="660" spans="4:4" ht="13">
+      <c r="D660" s="19"/>
+    </row>
+    <row r="661" spans="4:4" ht="13">
+      <c r="D661" s="19"/>
+    </row>
+    <row r="662" spans="4:4" ht="13">
+      <c r="D662" s="19"/>
+    </row>
+    <row r="663" spans="4:4" ht="13">
+      <c r="D663" s="19"/>
+    </row>
+    <row r="664" spans="4:4" ht="13">
+      <c r="D664" s="19"/>
+    </row>
+    <row r="665" spans="4:4" ht="13">
+      <c r="D665" s="19"/>
+    </row>
+    <row r="666" spans="4:4" ht="13">
+      <c r="D666" s="19"/>
+    </row>
+    <row r="667" spans="4:4" ht="13">
+      <c r="D667" s="19"/>
+    </row>
+    <row r="668" spans="4:4" ht="13">
+      <c r="D668" s="19"/>
+    </row>
+    <row r="669" spans="4:4" ht="13">
+      <c r="D669" s="19"/>
+    </row>
+    <row r="670" spans="4:4" ht="13">
+      <c r="D670" s="19"/>
+    </row>
+    <row r="671" spans="4:4" ht="13">
+      <c r="D671" s="19"/>
+    </row>
+    <row r="672" spans="4:4" ht="13">
+      <c r="D672" s="19"/>
+    </row>
+    <row r="673" spans="4:4" ht="13">
+      <c r="D673" s="19"/>
+    </row>
+    <row r="674" spans="4:4" ht="13">
+      <c r="D674" s="19"/>
+    </row>
+    <row r="675" spans="4:4" ht="13">
+      <c r="D675" s="19"/>
+    </row>
+    <row r="676" spans="4:4" ht="13">
+      <c r="D676" s="19"/>
+    </row>
+    <row r="677" spans="4:4" ht="13">
+      <c r="D677" s="19"/>
+    </row>
+    <row r="678" spans="4:4" ht="13">
+      <c r="D678" s="19"/>
+    </row>
+    <row r="679" spans="4:4" ht="13">
+      <c r="D679" s="19"/>
+    </row>
+    <row r="680" spans="4:4" ht="13">
+      <c r="D680" s="19"/>
+    </row>
+    <row r="681" spans="4:4" ht="13">
+      <c r="D681" s="19"/>
+    </row>
+    <row r="682" spans="4:4" ht="13">
+      <c r="D682" s="19"/>
+    </row>
+    <row r="683" spans="4:4" ht="13">
+      <c r="D683" s="19"/>
+    </row>
+    <row r="684" spans="4:4" ht="13">
+      <c r="D684" s="19"/>
+    </row>
+    <row r="685" spans="4:4" ht="13">
+      <c r="D685" s="19"/>
+    </row>
+    <row r="686" spans="4:4" ht="13">
+      <c r="D686" s="19"/>
+    </row>
+    <row r="687" spans="4:4" ht="13">
+      <c r="D687" s="19"/>
+    </row>
+    <row r="688" spans="4:4" ht="13">
+      <c r="D688" s="19"/>
+    </row>
+    <row r="689" spans="4:4" ht="13">
+      <c r="D689" s="19"/>
+    </row>
+    <row r="690" spans="4:4" ht="13">
+      <c r="D690" s="19"/>
+    </row>
+    <row r="691" spans="4:4" ht="13">
+      <c r="D691" s="19"/>
+    </row>
+    <row r="692" spans="4:4" ht="13">
+      <c r="D692" s="19"/>
+    </row>
+    <row r="693" spans="4:4" ht="13">
+      <c r="D693" s="19"/>
+    </row>
+    <row r="694" spans="4:4" ht="13">
+      <c r="D694" s="19"/>
+    </row>
+    <row r="695" spans="4:4" ht="13">
+      <c r="D695" s="19"/>
+    </row>
+    <row r="696" spans="4:4" ht="13">
+      <c r="D696" s="19"/>
+    </row>
+    <row r="697" spans="4:4" ht="13">
+      <c r="D697" s="19"/>
+    </row>
+    <row r="698" spans="4:4" ht="13">
+      <c r="D698" s="19"/>
+    </row>
+    <row r="699" spans="4:4" ht="13">
+      <c r="D699" s="19"/>
+    </row>
+    <row r="700" spans="4:4" ht="13">
+      <c r="D700" s="19"/>
+    </row>
+    <row r="701" spans="4:4" ht="13">
+      <c r="D701" s="19"/>
+    </row>
+    <row r="702" spans="4:4" ht="13">
+      <c r="D702" s="19"/>
+    </row>
+    <row r="703" spans="4:4" ht="13">
+      <c r="D703" s="19"/>
+    </row>
+    <row r="704" spans="4:4" ht="13">
+      <c r="D704" s="19"/>
+    </row>
+    <row r="705" spans="4:4" ht="13">
+      <c r="D705" s="19"/>
+    </row>
+    <row r="706" spans="4:4" ht="13">
+      <c r="D706" s="19"/>
+    </row>
+    <row r="707" spans="4:4" ht="13">
+      <c r="D707" s="19"/>
+    </row>
+    <row r="708" spans="4:4" ht="13">
+      <c r="D708" s="19"/>
+    </row>
+    <row r="709" spans="4:4" ht="13">
+      <c r="D709" s="19"/>
+    </row>
+    <row r="710" spans="4:4" ht="13">
+      <c r="D710" s="19"/>
+    </row>
+    <row r="711" spans="4:4" ht="13">
+      <c r="D711" s="19"/>
+    </row>
+    <row r="712" spans="4:4" ht="13">
+      <c r="D712" s="19"/>
+    </row>
+    <row r="713" spans="4:4" ht="13">
+      <c r="D713" s="19"/>
+    </row>
+    <row r="714" spans="4:4" ht="13">
+      <c r="D714" s="19"/>
+    </row>
+    <row r="715" spans="4:4" ht="13">
+      <c r="D715" s="19"/>
+    </row>
+    <row r="716" spans="4:4" ht="13">
+      <c r="D716" s="19"/>
+    </row>
+    <row r="717" spans="4:4" ht="13">
+      <c r="D717" s="19"/>
+    </row>
+    <row r="718" spans="4:4" ht="13">
+      <c r="D718" s="19"/>
+    </row>
+    <row r="719" spans="4:4" ht="13">
+      <c r="D719" s="19"/>
+    </row>
+    <row r="720" spans="4:4" ht="13">
+      <c r="D720" s="19"/>
+    </row>
+    <row r="721" spans="4:4" ht="13">
+      <c r="D721" s="19"/>
+    </row>
+    <row r="722" spans="4:4" ht="13">
+      <c r="D722" s="19"/>
+    </row>
+    <row r="723" spans="4:4" ht="13">
+      <c r="D723" s="19"/>
+    </row>
+    <row r="724" spans="4:4" ht="13">
+      <c r="D724" s="19"/>
+    </row>
+    <row r="725" spans="4:4" ht="13">
+      <c r="D725" s="19"/>
+    </row>
+    <row r="726" spans="4:4" ht="13">
+      <c r="D726" s="19"/>
+    </row>
+    <row r="727" spans="4:4" ht="13">
+      <c r="D727" s="19"/>
+    </row>
+    <row r="728" spans="4:4" ht="13">
+      <c r="D728" s="19"/>
+    </row>
+    <row r="729" spans="4:4" ht="13">
+      <c r="D729" s="19"/>
+    </row>
+    <row r="730" spans="4:4" ht="13">
+      <c r="D730" s="19"/>
+    </row>
+    <row r="731" spans="4:4" ht="13">
+      <c r="D731" s="19"/>
+    </row>
+    <row r="732" spans="4:4" ht="13">
+      <c r="D732" s="19"/>
+    </row>
+    <row r="733" spans="4:4" ht="13">
+      <c r="D733" s="19"/>
+    </row>
+    <row r="734" spans="4:4" ht="13">
+      <c r="D734" s="19"/>
+    </row>
+    <row r="735" spans="4:4" ht="13">
+      <c r="D735" s="19"/>
+    </row>
+    <row r="736" spans="4:4" ht="13">
+      <c r="D736" s="19"/>
+    </row>
+    <row r="737" spans="4:4" ht="13">
+      <c r="D737" s="19"/>
+    </row>
+    <row r="738" spans="4:4" ht="13">
+      <c r="D738" s="19"/>
+    </row>
+    <row r="739" spans="4:4" ht="13">
+      <c r="D739" s="19"/>
+    </row>
+    <row r="740" spans="4:4" ht="13">
+      <c r="D740" s="19"/>
+    </row>
+    <row r="741" spans="4:4" ht="13">
+      <c r="D741" s="19"/>
+    </row>
+    <row r="742" spans="4:4" ht="13">
+      <c r="D742" s="19"/>
+    </row>
+    <row r="743" spans="4:4" ht="13">
+      <c r="D743" s="19"/>
+    </row>
+    <row r="744" spans="4:4" ht="13">
+      <c r="D744" s="19"/>
+    </row>
+    <row r="745" spans="4:4" ht="13">
+      <c r="D745" s="19"/>
+    </row>
+    <row r="746" spans="4:4" ht="13">
+      <c r="D746" s="19"/>
+    </row>
+    <row r="747" spans="4:4" ht="13">
+      <c r="D747" s="19"/>
+    </row>
+    <row r="748" spans="4:4" ht="13">
+      <c r="D748" s="19"/>
+    </row>
+    <row r="749" spans="4:4" ht="13">
+      <c r="D749" s="19"/>
+    </row>
+    <row r="750" spans="4:4" ht="13">
+      <c r="D750" s="19"/>
+    </row>
+    <row r="751" spans="4:4" ht="13">
+      <c r="D751" s="19"/>
+    </row>
+    <row r="752" spans="4:4" ht="13">
+      <c r="D752" s="19"/>
+    </row>
+    <row r="753" spans="4:4" ht="13">
+      <c r="D753" s="19"/>
+    </row>
+    <row r="754" spans="4:4" ht="13">
+      <c r="D754" s="19"/>
+    </row>
+    <row r="755" spans="4:4" ht="13">
+      <c r="D755" s="19"/>
+    </row>
+    <row r="756" spans="4:4" ht="13">
+      <c r="D756" s="19"/>
+    </row>
+    <row r="757" spans="4:4" ht="13">
+      <c r="D757" s="19"/>
+    </row>
+    <row r="758" spans="4:4" ht="13">
+      <c r="D758" s="19"/>
+    </row>
+    <row r="759" spans="4:4" ht="13">
+      <c r="D759" s="19"/>
+    </row>
+    <row r="760" spans="4:4" ht="13">
+      <c r="D760" s="19"/>
+    </row>
+    <row r="761" spans="4:4" ht="13">
+      <c r="D761" s="19"/>
+    </row>
+    <row r="762" spans="4:4" ht="13">
+      <c r="D762" s="19"/>
+    </row>
+    <row r="763" spans="4:4" ht="13">
+      <c r="D763" s="19"/>
+    </row>
+    <row r="764" spans="4:4" ht="13">
+      <c r="D764" s="19"/>
+    </row>
+    <row r="765" spans="4:4" ht="13">
+      <c r="D765" s="19"/>
+    </row>
+    <row r="766" spans="4:4" ht="13">
+      <c r="D766" s="19"/>
+    </row>
+    <row r="767" spans="4:4" ht="13">
+      <c r="D767" s="19"/>
+    </row>
+    <row r="768" spans="4:4" ht="13">
+      <c r="D768" s="19"/>
+    </row>
+    <row r="769" spans="4:4" ht="13">
+      <c r="D769" s="19"/>
+    </row>
+    <row r="770" spans="4:4" ht="13">
+      <c r="D770" s="19"/>
+    </row>
+    <row r="771" spans="4:4" ht="13">
+      <c r="D771" s="19"/>
+    </row>
+    <row r="772" spans="4:4" ht="13">
+      <c r="D772" s="19"/>
+    </row>
+    <row r="773" spans="4:4" ht="13">
+      <c r="D773" s="19"/>
+    </row>
+    <row r="774" spans="4:4" ht="13">
+      <c r="D774" s="19"/>
+    </row>
+    <row r="775" spans="4:4" ht="13">
+      <c r="D775" s="19"/>
+    </row>
+    <row r="776" spans="4:4" ht="13">
+      <c r="D776" s="19"/>
+    </row>
+    <row r="777" spans="4:4" ht="13">
+      <c r="D777" s="19"/>
+    </row>
+    <row r="778" spans="4:4" ht="13">
+      <c r="D778" s="19"/>
+    </row>
+    <row r="779" spans="4:4" ht="13">
+      <c r="D779" s="19"/>
+    </row>
+    <row r="780" spans="4:4" ht="13">
+      <c r="D780" s="19"/>
+    </row>
+    <row r="781" spans="4:4" ht="13">
+      <c r="D781" s="19"/>
+    </row>
+    <row r="782" spans="4:4" ht="13">
+      <c r="D782" s="19"/>
+    </row>
+    <row r="783" spans="4:4" ht="13">
+      <c r="D783" s="19"/>
+    </row>
+    <row r="784" spans="4:4" ht="13">
+      <c r="D784" s="19"/>
+    </row>
+    <row r="785" spans="4:4" ht="13">
+      <c r="D785" s="19"/>
+    </row>
+    <row r="786" spans="4:4" ht="13">
+      <c r="D786" s="19"/>
+    </row>
+    <row r="787" spans="4:4" ht="13">
+      <c r="D787" s="19"/>
+    </row>
+    <row r="788" spans="4:4" ht="13">
+      <c r="D788" s="19"/>
+    </row>
+    <row r="789" spans="4:4" ht="13">
+      <c r="D789" s="19"/>
+    </row>
+    <row r="790" spans="4:4" ht="13">
+      <c r="D790" s="19"/>
+    </row>
+    <row r="791" spans="4:4" ht="13">
+      <c r="D791" s="19"/>
+    </row>
+    <row r="792" spans="4:4" ht="13">
+      <c r="D792" s="19"/>
+    </row>
+    <row r="793" spans="4:4" ht="13">
+      <c r="D793" s="19"/>
+    </row>
+    <row r="794" spans="4:4" ht="13">
+      <c r="D794" s="19"/>
+    </row>
+    <row r="795" spans="4:4" ht="13">
+      <c r="D795" s="19"/>
+    </row>
+    <row r="796" spans="4:4" ht="13">
+      <c r="D796" s="19"/>
+    </row>
+    <row r="797" spans="4:4" ht="13">
+      <c r="D797" s="19"/>
+    </row>
+    <row r="798" spans="4:4" ht="13">
+      <c r="D798" s="19"/>
+    </row>
+    <row r="799" spans="4:4" ht="13">
+      <c r="D799" s="19"/>
+    </row>
+    <row r="800" spans="4:4" ht="13">
+      <c r="D800" s="19"/>
+    </row>
+    <row r="801" spans="4:4" ht="13">
+      <c r="D801" s="19"/>
+    </row>
+    <row r="802" spans="4:4" ht="13">
+      <c r="D802" s="19"/>
+    </row>
+    <row r="803" spans="4:4" ht="13">
+      <c r="D803" s="19"/>
+    </row>
+    <row r="804" spans="4:4" ht="13">
+      <c r="D804" s="19"/>
+    </row>
+    <row r="805" spans="4:4" ht="13">
+      <c r="D805" s="19"/>
+    </row>
+    <row r="806" spans="4:4" ht="13">
+      <c r="D806" s="19"/>
+    </row>
+    <row r="807" spans="4:4" ht="13">
+      <c r="D807" s="19"/>
+    </row>
+    <row r="808" spans="4:4" ht="13">
+      <c r="D808" s="19"/>
+    </row>
+    <row r="809" spans="4:4" ht="13">
+      <c r="D809" s="19"/>
+    </row>
+    <row r="810" spans="4:4" ht="13">
+      <c r="D810" s="19"/>
+    </row>
+    <row r="811" spans="4:4" ht="13">
+      <c r="D811" s="19"/>
+    </row>
+    <row r="812" spans="4:4" ht="13">
+      <c r="D812" s="19"/>
+    </row>
+    <row r="813" spans="4:4" ht="13">
+      <c r="D813" s="19"/>
+    </row>
+    <row r="814" spans="4:4" ht="13">
+      <c r="D814" s="19"/>
+    </row>
+    <row r="815" spans="4:4" ht="13">
+      <c r="D815" s="19"/>
+    </row>
+    <row r="816" spans="4:4" ht="13">
+      <c r="D816" s="19"/>
+    </row>
+    <row r="817" spans="4:4" ht="13">
+      <c r="D817" s="19"/>
+    </row>
+    <row r="818" spans="4:4" ht="13">
+      <c r="D818" s="19"/>
+    </row>
+    <row r="819" spans="4:4" ht="13">
+      <c r="D819" s="19"/>
+    </row>
+    <row r="820" spans="4:4" ht="13">
+      <c r="D820" s="19"/>
+    </row>
+    <row r="821" spans="4:4" ht="13">
+      <c r="D821" s="19"/>
+    </row>
+    <row r="822" spans="4:4" ht="13">
+      <c r="D822" s="19"/>
+    </row>
+    <row r="823" spans="4:4" ht="13">
+      <c r="D823" s="19"/>
+    </row>
+    <row r="824" spans="4:4" ht="13">
+      <c r="D824" s="19"/>
+    </row>
+    <row r="825" spans="4:4" ht="13">
+      <c r="D825" s="19"/>
+    </row>
+    <row r="826" spans="4:4" ht="13">
+      <c r="D826" s="19"/>
+    </row>
+    <row r="827" spans="4:4" ht="13">
+      <c r="D827" s="19"/>
+    </row>
+    <row r="828" spans="4:4" ht="13">
+      <c r="D828" s="19"/>
+    </row>
+    <row r="829" spans="4:4" ht="13">
+      <c r="D829" s="19"/>
+    </row>
+    <row r="830" spans="4:4" ht="13">
+      <c r="D830" s="19"/>
+    </row>
+    <row r="831" spans="4:4" ht="13">
+      <c r="D831" s="19"/>
+    </row>
+    <row r="832" spans="4:4" ht="13">
+      <c r="D832" s="19"/>
+    </row>
+    <row r="833" spans="4:4" ht="13">
+      <c r="D833" s="19"/>
+    </row>
+    <row r="834" spans="4:4" ht="13">
+      <c r="D834" s="19"/>
+    </row>
+    <row r="835" spans="4:4" ht="13">
+      <c r="D835" s="19"/>
+    </row>
+    <row r="836" spans="4:4" ht="13">
+      <c r="D836" s="19"/>
+    </row>
+    <row r="837" spans="4:4" ht="13">
+      <c r="D837" s="19"/>
+    </row>
+    <row r="838" spans="4:4" ht="13">
+      <c r="D838" s="19"/>
+    </row>
+    <row r="839" spans="4:4" ht="13">
+      <c r="D839" s="19"/>
+    </row>
+    <row r="840" spans="4:4" ht="13">
+      <c r="D840" s="19"/>
+    </row>
+    <row r="841" spans="4:4" ht="13">
+      <c r="D841" s="19"/>
+    </row>
+    <row r="842" spans="4:4" ht="13">
+      <c r="D842" s="19"/>
+    </row>
+    <row r="843" spans="4:4" ht="13">
+      <c r="D843" s="19"/>
+    </row>
+    <row r="844" spans="4:4" ht="13">
+      <c r="D844" s="19"/>
+    </row>
+    <row r="845" spans="4:4" ht="13">
+      <c r="D845" s="19"/>
+    </row>
+    <row r="846" spans="4:4" ht="13">
+      <c r="D846" s="19"/>
+    </row>
+    <row r="847" spans="4:4" ht="13">
+      <c r="D847" s="19"/>
+    </row>
+    <row r="848" spans="4:4" ht="13">
+      <c r="D848" s="19"/>
+    </row>
+    <row r="849" spans="4:4" ht="13">
+      <c r="D849" s="19"/>
+    </row>
+    <row r="850" spans="4:4" ht="13">
+      <c r="D850" s="19"/>
+    </row>
+    <row r="851" spans="4:4" ht="13">
+      <c r="D851" s="19"/>
+    </row>
+    <row r="852" spans="4:4" ht="13">
+      <c r="D852" s="19"/>
+    </row>
+    <row r="853" spans="4:4" ht="13">
+      <c r="D853" s="19"/>
+    </row>
+    <row r="854" spans="4:4" ht="13">
+      <c r="D854" s="19"/>
+    </row>
+    <row r="855" spans="4:4" ht="13">
+      <c r="D855" s="19"/>
+    </row>
+    <row r="856" spans="4:4" ht="13">
+      <c r="D856" s="19"/>
+    </row>
+    <row r="857" spans="4:4" ht="13">
+      <c r="D857" s="19"/>
+    </row>
+    <row r="858" spans="4:4" ht="13">
+      <c r="D858" s="19"/>
+    </row>
+    <row r="859" spans="4:4" ht="13">
+      <c r="D859" s="19"/>
+    </row>
+    <row r="860" spans="4:4" ht="13">
+      <c r="D860" s="19"/>
+    </row>
+    <row r="861" spans="4:4" ht="13">
+      <c r="D861" s="19"/>
+    </row>
+    <row r="862" spans="4:4" ht="13">
+      <c r="D862" s="19"/>
+    </row>
+    <row r="863" spans="4:4" ht="13">
+      <c r="D863" s="19"/>
+    </row>
+    <row r="864" spans="4:4" ht="13">
+      <c r="D864" s="19"/>
+    </row>
+    <row r="865" spans="4:4" ht="13">
+      <c r="D865" s="19"/>
+    </row>
+    <row r="866" spans="4:4" ht="13">
+      <c r="D866" s="19"/>
+    </row>
+    <row r="867" spans="4:4" ht="13">
+      <c r="D867" s="19"/>
+    </row>
+    <row r="868" spans="4:4" ht="13">
+      <c r="D868" s="19"/>
+    </row>
+    <row r="869" spans="4:4" ht="13">
+      <c r="D869" s="19"/>
+    </row>
+    <row r="870" spans="4:4" ht="13">
+      <c r="D870" s="19"/>
+    </row>
+    <row r="871" spans="4:4" ht="13">
+      <c r="D871" s="19"/>
+    </row>
+    <row r="872" spans="4:4" ht="13">
+      <c r="D872" s="19"/>
+    </row>
+    <row r="873" spans="4:4" ht="13">
+      <c r="D873" s="19"/>
+    </row>
+    <row r="874" spans="4:4" ht="13">
+      <c r="D874" s="19"/>
+    </row>
+    <row r="875" spans="4:4" ht="13">
+      <c r="D875" s="19"/>
+    </row>
+    <row r="876" spans="4:4" ht="13">
+      <c r="D876" s="19"/>
+    </row>
+    <row r="877" spans="4:4" ht="13">
+      <c r="D877" s="19"/>
+    </row>
+    <row r="878" spans="4:4" ht="13">
+      <c r="D878" s="19"/>
+    </row>
+    <row r="879" spans="4:4" ht="13">
+      <c r="D879" s="19"/>
+    </row>
+    <row r="880" spans="4:4" ht="13">
+      <c r="D880" s="19"/>
+    </row>
+    <row r="881" spans="4:4" ht="13">
+      <c r="D881" s="19"/>
+    </row>
+    <row r="882" spans="4:4" ht="13">
+      <c r="D882" s="19"/>
+    </row>
+    <row r="883" spans="4:4" ht="13">
+      <c r="D883" s="19"/>
+    </row>
+    <row r="884" spans="4:4" ht="13">
+      <c r="D884" s="19"/>
+    </row>
+    <row r="885" spans="4:4" ht="13">
+      <c r="D885" s="19"/>
+    </row>
+    <row r="886" spans="4:4" ht="13">
+      <c r="D886" s="19"/>
+    </row>
+    <row r="887" spans="4:4" ht="13">
+      <c r="D887" s="19"/>
+    </row>
+    <row r="888" spans="4:4" ht="13">
+      <c r="D888" s="19"/>
+    </row>
+    <row r="889" spans="4:4" ht="13">
+      <c r="D889" s="19"/>
+    </row>
+    <row r="890" spans="4:4" ht="13">
+      <c r="D890" s="19"/>
+    </row>
+    <row r="891" spans="4:4" ht="13">
+      <c r="D891" s="19"/>
+    </row>
+    <row r="892" spans="4:4" ht="13">
+      <c r="D892" s="19"/>
+    </row>
+    <row r="893" spans="4:4" ht="13">
+      <c r="D893" s="19"/>
+    </row>
+    <row r="894" spans="4:4" ht="13">
+      <c r="D894" s="19"/>
+    </row>
+    <row r="895" spans="4:4" ht="13">
+      <c r="D895" s="19"/>
+    </row>
+    <row r="896" spans="4:4" ht="13">
+      <c r="D896" s="19"/>
+    </row>
+    <row r="897" spans="4:4" ht="13">
+      <c r="D897" s="19"/>
+    </row>
+    <row r="898" spans="4:4" ht="13">
+      <c r="D898" s="19"/>
+    </row>
+    <row r="899" spans="4:4" ht="13">
+      <c r="D899" s="19"/>
+    </row>
+    <row r="900" spans="4:4" ht="13">
+      <c r="D900" s="19"/>
+    </row>
+    <row r="901" spans="4:4" ht="13">
+      <c r="D901" s="19"/>
+    </row>
+    <row r="902" spans="4:4" ht="13">
+      <c r="D902" s="19"/>
+    </row>
+    <row r="903" spans="4:4" ht="13">
+      <c r="D903" s="19"/>
+    </row>
+    <row r="904" spans="4:4" ht="13">
+      <c r="D904" s="19"/>
+    </row>
+    <row r="905" spans="4:4" ht="13">
+      <c r="D905" s="19"/>
+    </row>
+    <row r="906" spans="4:4" ht="13">
+      <c r="D906" s="19"/>
+    </row>
+    <row r="907" spans="4:4" ht="13">
+      <c r="D907" s="19"/>
+    </row>
+    <row r="908" spans="4:4" ht="13">
+      <c r="D908" s="19"/>
+    </row>
+    <row r="909" spans="4:4" ht="13">
+      <c r="D909" s="19"/>
+    </row>
+    <row r="910" spans="4:4" ht="13">
+      <c r="D910" s="19"/>
+    </row>
+    <row r="911" spans="4:4" ht="13">
+      <c r="D911" s="19"/>
+    </row>
+    <row r="912" spans="4:4" ht="13">
+      <c r="D912" s="19"/>
+    </row>
+    <row r="913" spans="4:4" ht="13">
+      <c r="D913" s="19"/>
+    </row>
+    <row r="914" spans="4:4" ht="13">
+      <c r="D914" s="19"/>
+    </row>
+    <row r="915" spans="4:4" ht="13">
+      <c r="D915" s="19"/>
+    </row>
+    <row r="916" spans="4:4" ht="13">
+      <c r="D916" s="19"/>
+    </row>
+    <row r="917" spans="4:4" ht="13">
+      <c r="D917" s="19"/>
+    </row>
+    <row r="918" spans="4:4" ht="13">
+      <c r="D918" s="19"/>
+    </row>
+    <row r="919" spans="4:4" ht="13">
+      <c r="D919" s="19"/>
+    </row>
+    <row r="920" spans="4:4" ht="13">
+      <c r="D920" s="19"/>
+    </row>
+    <row r="921" spans="4:4" ht="13">
+      <c r="D921" s="19"/>
+    </row>
+    <row r="922" spans="4:4" ht="13">
+      <c r="D922" s="19"/>
+    </row>
+    <row r="923" spans="4:4" ht="13">
+      <c r="D923" s="19"/>
+    </row>
+    <row r="924" spans="4:4" ht="13">
+      <c r="D924" s="19"/>
+    </row>
+    <row r="925" spans="4:4" ht="13">
+      <c r="D925" s="19"/>
+    </row>
+    <row r="926" spans="4:4" ht="13">
+      <c r="D926" s="19"/>
+    </row>
+    <row r="927" spans="4:4" ht="13">
+      <c r="D927" s="19"/>
+    </row>
+    <row r="928" spans="4:4" ht="13">
+      <c r="D928" s="19"/>
+    </row>
+    <row r="929" spans="4:4" ht="13">
+      <c r="D929" s="19"/>
+    </row>
+    <row r="930" spans="4:4" ht="13">
+      <c r="D930" s="19"/>
+    </row>
+    <row r="931" spans="4:4" ht="13">
+      <c r="D931" s="19"/>
+    </row>
+    <row r="932" spans="4:4" ht="13">
+      <c r="D932" s="19"/>
+    </row>
+    <row r="933" spans="4:4" ht="13">
+      <c r="D933" s="19"/>
+    </row>
+    <row r="934" spans="4:4" ht="13">
+      <c r="D934" s="19"/>
+    </row>
+    <row r="935" spans="4:4" ht="13">
+      <c r="D935" s="19"/>
+    </row>
+    <row r="936" spans="4:4" ht="13">
+      <c r="D936" s="19"/>
+    </row>
+    <row r="937" spans="4:4" ht="13">
+      <c r="D937" s="19"/>
+    </row>
+    <row r="938" spans="4:4" ht="13">
+      <c r="D938" s="19"/>
+    </row>
+    <row r="939" spans="4:4" ht="13">
+      <c r="D939" s="19"/>
+    </row>
+    <row r="940" spans="4:4" ht="13">
+      <c r="D940" s="19"/>
+    </row>
+    <row r="941" spans="4:4" ht="13">
+      <c r="D941" s="19"/>
+    </row>
+    <row r="942" spans="4:4" ht="13">
+      <c r="D942" s="19"/>
+    </row>
+    <row r="943" spans="4:4" ht="13">
+      <c r="D943" s="19"/>
+    </row>
+    <row r="944" spans="4:4" ht="13">
+      <c r="D944" s="19"/>
+    </row>
+    <row r="945" spans="4:4" ht="13">
+      <c r="D945" s="19"/>
+    </row>
+    <row r="946" spans="4:4" ht="13">
+      <c r="D946" s="19"/>
+    </row>
+    <row r="947" spans="4:4" ht="13">
+      <c r="D947" s="19"/>
+    </row>
+    <row r="948" spans="4:4" ht="13">
+      <c r="D948" s="19"/>
+    </row>
+    <row r="949" spans="4:4" ht="13">
+      <c r="D949" s="19"/>
+    </row>
+    <row r="950" spans="4:4" ht="13">
+      <c r="D950" s="19"/>
+    </row>
+    <row r="951" spans="4:4" ht="13">
+      <c r="D951" s="19"/>
+    </row>
+    <row r="952" spans="4:4" ht="13">
+      <c r="D952" s="19"/>
+    </row>
+    <row r="953" spans="4:4" ht="13">
+      <c r="D953" s="19"/>
+    </row>
+    <row r="954" spans="4:4" ht="13">
+      <c r="D954" s="19"/>
+    </row>
+    <row r="955" spans="4:4" ht="13">
+      <c r="D955" s="19"/>
+    </row>
+    <row r="956" spans="4:4" ht="13">
+      <c r="D956" s="19"/>
+    </row>
+    <row r="957" spans="4:4" ht="13">
+      <c r="D957" s="19"/>
+    </row>
+    <row r="958" spans="4:4" ht="13">
+      <c r="D958" s="19"/>
+    </row>
+    <row r="959" spans="4:4" ht="13">
+      <c r="D959" s="19"/>
+    </row>
+    <row r="960" spans="4:4" ht="13">
+      <c r="D960" s="19"/>
+    </row>
+    <row r="961" spans="4:4" ht="13">
+      <c r="D961" s="19"/>
+    </row>
+    <row r="962" spans="4:4" ht="13">
+      <c r="D962" s="19"/>
+    </row>
+    <row r="963" spans="4:4" ht="13">
+      <c r="D963" s="19"/>
+    </row>
+    <row r="964" spans="4:4" ht="13">
+      <c r="D964" s="19"/>
+    </row>
+    <row r="965" spans="4:4" ht="13">
+      <c r="D965" s="19"/>
+    </row>
+    <row r="966" spans="4:4" ht="13">
+      <c r="D966" s="19"/>
+    </row>
+    <row r="967" spans="4:4" ht="13">
+      <c r="D967" s="19"/>
+    </row>
+    <row r="968" spans="4:4" ht="13">
+      <c r="D968" s="19"/>
+    </row>
+    <row r="969" spans="4:4" ht="13">
+      <c r="D969" s="19"/>
+    </row>
+    <row r="970" spans="4:4" ht="13">
+      <c r="D970" s="19"/>
+    </row>
+    <row r="971" spans="4:4" ht="13">
+      <c r="D971" s="19"/>
+    </row>
+    <row r="972" spans="4:4" ht="13">
+      <c r="D972" s="19"/>
+    </row>
+    <row r="973" spans="4:4" ht="13">
+      <c r="D973" s="19"/>
+    </row>
+    <row r="974" spans="4:4" ht="13">
+      <c r="D974" s="19"/>
+    </row>
+    <row r="975" spans="4:4" ht="13">
+      <c r="D975" s="19"/>
+    </row>
+    <row r="976" spans="4:4" ht="13">
+      <c r="D976" s="19"/>
+    </row>
+    <row r="977" spans="4:4" ht="13">
+      <c r="D977" s="19"/>
+    </row>
+    <row r="978" spans="4:4" ht="13">
+      <c r="D978" s="19"/>
+    </row>
+    <row r="979" spans="4:4" ht="13">
+      <c r="D979" s="19"/>
+    </row>
+    <row r="980" spans="4:4" ht="13">
+      <c r="D980" s="19"/>
+    </row>
+    <row r="981" spans="4:4" ht="13">
+      <c r="D981" s="19"/>
+    </row>
+    <row r="982" spans="4:4" ht="13">
+      <c r="D982" s="19"/>
+    </row>
+    <row r="983" spans="4:4" ht="13">
+      <c r="D983" s="19"/>
+    </row>
+    <row r="984" spans="4:4" ht="13">
+      <c r="D984" s="19"/>
+    </row>
+    <row r="985" spans="4:4" ht="13">
+      <c r="D985" s="19"/>
+    </row>
+    <row r="986" spans="4:4" ht="13">
+      <c r="D986" s="19"/>
+    </row>
+    <row r="987" spans="4:4" ht="13">
+      <c r="D987" s="19"/>
+    </row>
+    <row r="988" spans="4:4" ht="13">
+      <c r="D988" s="19"/>
+    </row>
+    <row r="989" spans="4:4" ht="13">
+      <c r="D989" s="19"/>
+    </row>
+    <row r="990" spans="4:4" ht="13">
+      <c r="D990" s="19"/>
+    </row>
+    <row r="991" spans="4:4" ht="13">
+      <c r="D991" s="19"/>
+    </row>
+    <row r="992" spans="4:4" ht="13">
+      <c r="D992" s="19"/>
+    </row>
+    <row r="993" spans="4:4" ht="13">
+      <c r="D993" s="19"/>
+    </row>
+    <row r="994" spans="4:4" ht="13">
+      <c r="D994" s="19"/>
+    </row>
+    <row r="995" spans="4:4" ht="13">
+      <c r="D995" s="19"/>
+    </row>
+    <row r="996" spans="4:4" ht="13">
+      <c r="D996" s="19"/>
+    </row>
+    <row r="997" spans="4:4" ht="13">
+      <c r="D997" s="19"/>
+    </row>
+    <row r="998" spans="4:4" ht="13">
+      <c r="D998" s="19"/>
+    </row>
+    <row r="999" spans="4:4" ht="13">
+      <c r="D999" s="19"/>
+    </row>
+    <row r="1000" spans="4:4" ht="13">
+      <c r="D1000" s="19"/>
+    </row>
+    <row r="1001" spans="4:4" ht="13">
+      <c r="D1001" s="19"/>
+    </row>
+    <row r="1002" spans="4:4" ht="13">
+      <c r="D1002" s="19"/>
+    </row>
+    <row r="1003" spans="4:4" ht="13">
+      <c r="D1003" s="19"/>
+    </row>
+    <row r="1004" spans="4:4" ht="13">
+      <c r="D1004" s="19"/>
+    </row>
+    <row r="1005" spans="4:4" ht="13">
+      <c r="D1005" s="19"/>
+    </row>
+    <row r="1006" spans="4:4" ht="13">
+      <c r="D1006" s="19"/>
+    </row>
+    <row r="1007" spans="4:4" ht="13">
+      <c r="D1007" s="19"/>
+    </row>
+    <row r="1008" spans="4:4" ht="13">
+      <c r="D1008" s="19"/>
+    </row>
+    <row r="1009" spans="4:4" ht="13">
+      <c r="D1009" s="19"/>
+    </row>
+    <row r="1010" spans="4:4" ht="13">
+      <c r="D1010" s="19"/>
+    </row>
+    <row r="1011" spans="4:4" ht="13">
+      <c r="D1011" s="19"/>
+    </row>
+    <row r="1012" spans="4:4" ht="13">
+      <c r="D1012" s="19"/>
+    </row>
+    <row r="1013" spans="4:4" ht="13">
+      <c r="D1013" s="19"/>
+    </row>
+    <row r="1014" spans="4:4" ht="13">
+      <c r="D1014" s="19"/>
+    </row>
+    <row r="1015" spans="4:4" ht="13">
+      <c r="D1015" s="19"/>
+    </row>
+    <row r="1016" spans="4:4" ht="13">
+      <c r="D1016" s="19"/>
+    </row>
+    <row r="1017" spans="4:4" ht="13">
+      <c r="D1017" s="19"/>
+    </row>
+    <row r="1018" spans="4:4" ht="13">
+      <c r="D1018" s="19"/>
+    </row>
+    <row r="1019" spans="4:4" ht="13">
+      <c r="D1019" s="19"/>
+    </row>
+    <row r="1020" spans="4:4" ht="13">
+      <c r="D1020" s="19"/>
+    </row>
+    <row r="1021" spans="4:4" ht="13">
+      <c r="D1021" s="19"/>
+    </row>
+    <row r="1022" spans="4:4" ht="13">
+      <c r="D1022" s="19"/>
+    </row>
+    <row r="1023" spans="4:4" ht="13">
+      <c r="D1023" s="19"/>
+    </row>
+    <row r="1024" spans="4:4" ht="13">
+      <c r="D1024" s="19"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B97" r:id="rId1" xr:uid="{33818729-3EE9-F843-B7E8-1BF6FCDEA6AE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B96DA2D-55FE-3045-A6E0-B72EBAB55DA2}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:X1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H90" sqref="H90"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
